--- a/metadata/EPI_EIR/EPI_EIR_TRK_V1.1.0_DHIS2.34/reference.xlsx
+++ b/metadata/EPI_EIR/EPI_EIR_TRK_V1.1.0_DHIS2.34/reference.xlsx
@@ -484,7 +484,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>.0.0</v>
+        <v>1.1.1</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>20211014T123149</v>
+        <v>20211026T111049</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>Name</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>EPI_EIR_TRK_1.0.0_DHIS2.34.7-EMBARGOED-en</v>
+        <v>EPI_EIR_TRK_1.1.1_DHIS2.34.7-EMBARGOED-en</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +959,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="544.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -992,16 +992,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>EIR - BCG 0.05mL</v>
+        <v>EIR - Batch/lot number (Vaccine 2)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>BCG_0.05</v>
+        <v>EPI - Batch/lot number (Vaccine 2)</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
@@ -1010,21 +1010,21 @@
         <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>bpBUOvqy1Jn</v>
+        <v>Dqp54QciwV7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>EIR - BCG 0.1mL</v>
+        <v>EIR - Batch/lot number (Vaccine 3)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>BCG_0.1</v>
+        <v>EPI - Batch/lot number (Vaccine 3)</v>
       </c>
       <c r="C3" s="5" t="str">
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
@@ -1033,21 +1033,21 @@
         <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>zSugskT1NC7</v>
+        <v>ltxO9JBUR2j</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>EIR - BCG not given</v>
+        <v>EIR - Batch/lot number (Vaccine 4)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>BCG not given</v>
+        <v>EPI - Batch/lot number (Vaccine 4)</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v/>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
@@ -1056,21 +1056,21 @@
         <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>LTdvha8zapG</v>
+        <v>tI1ZKSX3fNF</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>EIR - Birth registration date</v>
+        <v>EIR - BCG 0.05mL</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Birth registration date</v>
+        <v>BCG_0.05</v>
       </c>
       <c r="C5" s="5" t="str">
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v/>
+        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>default</v>
@@ -1079,21 +1079,21 @@
         <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>vbqDtmenuL0</v>
+        <v>bpBUOvqy1Jn</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>EIR - bOPV 0</v>
+        <v>EIR - BCG 0.1mL</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>bOPV 0</v>
+        <v>BCG_0.1</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>bOPV (Bivalent oral polo vaccine). 1 dose. At birth/as soon after birth as possible</v>
+        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>default</v>
@@ -1102,21 +1102,21 @@
         <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <v>no7SkAxepi7</v>
+        <v>zSugskT1NC7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>EIR - bOPV 1</v>
+        <v>EIR - Birth registration date</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>bOPV 1</v>
+        <v>Birth registration date</v>
       </c>
       <c r="C7" s="5" t="str">
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>default</v>
@@ -1125,7 +1125,7 @@
         <v/>
       </c>
       <c r="G7" s="5" t="str">
-        <v>CfPM8lsEMzH</v>
+        <v>vbqDtmenuL0</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>EIR - Cholera 1</v>
+        <v>EIR - Cholera 2</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Cholera 1</v>
+        <v>Cholera 2</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
@@ -1217,15 +1217,15 @@
         <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>K2kqY4vlUEb</v>
+        <v>xeWDz9py2Px</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>EIR - Cholera 2</v>
+        <v>EIR - Death</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Cholera 2</v>
+        <v>EPI - Death</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
@@ -1240,15 +1240,15 @@
         <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>xeWDz9py2Px</v>
+        <v>nhTULOXIfQ7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>EIR - Cholera 3</v>
+        <v>EIR - Dengue 2</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Cholera 3</v>
+        <v>Dengue 2</v>
       </c>
       <c r="C13" s="5" t="str">
         <v/>
@@ -1263,15 +1263,15 @@
         <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>bUuGVhio829</v>
+        <v>kWliwRfbRVN</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>EIR - Dengue 1</v>
+        <v>EIR - Dengue 3</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Dengue 1</v>
+        <v>Dengue 3</v>
       </c>
       <c r="C14" s="4" t="str">
         <v/>
@@ -1286,21 +1286,21 @@
         <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>FNF2ZFECX8O</v>
+        <v>MBScslhG7ci</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>EIR - Dengue 2</v>
+        <v>EIR - Diagnosed with HIV or severe Immunodeficiency</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Dengue 2</v>
+        <v>Diagnosed with HIV or severe Immunodeficiency</v>
       </c>
       <c r="C15" s="5" t="str">
         <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v/>
+        <v>Diagnosed with HIV or severe immunodeficiency (immunization program)</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
@@ -1309,21 +1309,21 @@
         <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>kWliwRfbRVN</v>
+        <v>ptgXqqoq8pf</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>EIR - Dengue 3</v>
+        <v>EIR - DPT (Booster) 1</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Dengue 3</v>
+        <v>DPT (Booster) 1</v>
       </c>
       <c r="C16" s="4" t="str">
         <v/>
       </c>
       <c r="D16" s="4" t="str">
-        <v/>
+        <v>DTP (Diphtheria-Tetanus-Pertussis). 3 doses. As early as 6 weeks; 4 weeks minimum interval between doses. If possible completed by 6 months of age. 3 Booster doses: 12-23 months, 4-7 years, 9-15 years; with minimum 4 year interval between doses</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
@@ -1332,21 +1332,21 @@
         <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>MBScslhG7ci</v>
+        <v>zh5oKBRevny</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>EIR - Diagnosed with HIV or severe Immunodeficiency</v>
+        <v>EIR - DTwP (Td containing) 1</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Diagnosed with HIV or severe Immunodeficiency</v>
+        <v>DTwP (Td containing) 1</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>Diagnosed with HIV or severe immunodeficiency (immunization program)</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
@@ -1355,21 +1355,21 @@
         <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>ptgXqqoq8pf</v>
+        <v>LauCl9aicLX</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>EIR - DPT (Booster) 1</v>
+        <v>EIR - Expiry date (Vaccine 1)</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>DPT (Booster) 1</v>
+        <v>EPI - Expiry date</v>
       </c>
       <c r="C18" s="4" t="str">
         <v/>
       </c>
       <c r="D18" s="4" t="str">
-        <v>DTP (Diphtheria-Tetanus-Pertussis). 3 doses. As early as 6 weeks; 4 weeks minimum interval between doses. If possible completed by 6 months of age. 3 Booster doses: 12-23 months, 4-7 years, 9-15 years; with minimum 4 year interval between doses</v>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>default</v>
@@ -1378,21 +1378,21 @@
         <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>zh5oKBRevny</v>
+        <v>CKlN0nulXGh</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>EIR - DTap (Td containing) 1</v>
+        <v>EIR - Expiry date (Vaccine 2)</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>DTap (Td containing) 1</v>
+        <v>EPI - Expiry date (Vaccine 2)</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v/>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>default</v>
@@ -1401,21 +1401,21 @@
         <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>xmWFhjl9gE1</v>
+        <v>lOwMwVEPRLy</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EIR - DTwP (Td containing) 1</v>
+        <v>EIR - Expiry date (Vaccine 4)</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>DTwP (Td containing) 1</v>
+        <v>EPI - Expiry date (Vaccine 4)</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1424,21 +1424,21 @@
         <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>LauCl9aicLX</v>
+        <v>SwGVBiNWvVT</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>EIR - Has the birth certificate been delivered to the parents?</v>
+        <v>EIR - Fever</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Birth Certificate delivered?</v>
+        <v>EPI - Fever</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v>Does the case have fever or not</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
@@ -1447,15 +1447,15 @@
         <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>bJykvtIiw4q</v>
+        <v>k5CLkBHLSti</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>EIR - Has the CRVS system been notified?</v>
+        <v>EIR - Has the birth certificate been delivered to the parents?</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>CRVS system notified?</v>
+        <v>Birth Certificate delivered?</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -1470,15 +1470,15 @@
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>DIxeC5ujXw0</v>
+        <v>bJykvtIiw4q</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>EIR - Hepatitis A 1</v>
+        <v>EIR - Has the CRVS system been notified?</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Hepatitis A 1</v>
+        <v>CRVS system notified?</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
@@ -1493,21 +1493,21 @@
         <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>FAQpFjSoDca</v>
+        <v>DIxeC5ujXw0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>EIR - Hepatitis B 1</v>
+        <v>EIR - Hepatitis A 1</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Hepatitis B 1</v>
+        <v>Hepatitis A 1</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>Hep B (Hepatitis B) protects against a viral infection that attacks the liver. 1 monovalent dose. Given at birth. If not given at birth can be given as soon after birth as possible.</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
@@ -1516,7 +1516,7 @@
         <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <v>qEtgKXZlMLE</v>
+        <v>FAQpFjSoDca</v>
       </c>
     </row>
     <row r="25">
@@ -1567,10 +1567,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>EIR - Hepatitis B not given</v>
+        <v>EIR - History of Anaphylactic reaction</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Hepatitis B not given</v>
+        <v>History of Anaphylactic reaction</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -1585,15 +1585,15 @@
         <v/>
       </c>
       <c r="G27" s="5" t="str">
-        <v>ZAUEcf9D941</v>
+        <v>UnXfP6q3uOp</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>EIR - History of Anaphylactic reaction</v>
+        <v>EIR - Hospitalization</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>History of Anaphylactic reaction</v>
+        <v>EPI - Hospitalization</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
@@ -1608,7 +1608,7 @@
         <v/>
       </c>
       <c r="G28" s="4" t="str">
-        <v>UnXfP6q3uOp</v>
+        <v>aLzZB7UYZXA</v>
       </c>
     </row>
     <row r="29">
@@ -1705,10 +1705,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>EIR - IPV 3</v>
+        <v>EIR - IPV not given</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>IPV 3</v>
+        <v>IPV not given</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
@@ -1723,21 +1723,21 @@
         <v/>
       </c>
       <c r="G33" s="5" t="str">
-        <v>J0dqTnGzX6T</v>
+        <v>Zm4v8CQIXyj</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>EIR - IPV 4 (Booster dose)</v>
+        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>IPV 4 (Booster dose)</v>
+        <v>Japanese Encephalitis1(Inact vero cell-derived)</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v/>
+        <v>(Inactivated vero cell-derived)</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>default</v>
@@ -1746,15 +1746,15 @@
         <v/>
       </c>
       <c r="G34" s="4" t="str">
-        <v>OWolh3WKA3Q</v>
+        <v>Y32nZNHfldk</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>EIR - IPV not given</v>
+        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>IPV not given</v>
+        <v>Japanese Encephalitis 1 (Live Attenuated)</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -1769,15 +1769,15 @@
         <v/>
       </c>
       <c r="G35" s="5" t="str">
-        <v>Zm4v8CQIXyj</v>
+        <v>eRFH94ocxrD</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
+        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Japanese Encephalitis1(Inact vero cell-derived)</v>
+        <v>Japanese Encephalitis2(Inact vero cell-derived)</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
@@ -1792,15 +1792,15 @@
         <v/>
       </c>
       <c r="G36" s="4" t="str">
-        <v>Y32nZNHfldk</v>
+        <v>LXivmI7ZAT8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
+        <v>EIR - Japanese Encephalitis 2 (Live Attenuated)</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Japanese Encephalitis 1 (Live Attenuated)</v>
+        <v>Japanese Encephalitis 2 (Live Attenuated)</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -1815,21 +1815,21 @@
         <v/>
       </c>
       <c r="G37" s="5" t="str">
-        <v>eRFH94ocxrD</v>
+        <v>ZZdARL1ILIy</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
+        <v>EIR - Life threatening</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Japanese Encephalitis2(Inact vero cell-derived)</v>
+        <v>EPI - Life threatening</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>(Inactivated vero cell-derived)</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
         <v>default</v>
@@ -1838,21 +1838,21 @@
         <v/>
       </c>
       <c r="G38" s="4" t="str">
-        <v>LXivmI7ZAT8</v>
+        <v>Pw8g8zttkAW</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 2 (Live Attenuated)</v>
+        <v>EIR - List reactions</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Japanese Encephalitis 2 (Live Attenuated)</v>
+        <v>List reactions</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <v/>
+        <v>List reactions (Immunization)</v>
       </c>
       <c r="E39" s="5" t="str">
         <v>default</v>
@@ -1861,21 +1861,22 @@
         <v/>
       </c>
       <c r="G39" s="5" t="str">
-        <v>ZZdARL1ILIy</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>HGjbAPoyEBu</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
       <c r="A40" s="4" t="str">
-        <v>EIR - List reactions</v>
+        <v>EIR - Measles 0</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>List reactions</v>
+        <v>Measles 0</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
-      <c r="D40" s="4" t="str">
-        <v>List reactions (Immunization)</v>
+      <c r="D40" s="4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.
+SUPPLEMENTARY DOSE IF MEASLES OUTBREAK.</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>default</v>
@@ -1884,22 +1885,21 @@
         <v/>
       </c>
       <c r="G40" s="4" t="str">
-        <v>HGjbAPoyEBu</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
+        <v>VNWRJ6J4WSc</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="5" t="str">
-        <v>EIR - Measles 0</v>
+        <v>EIR - Measles 1</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Measles 0</v>
+        <v>Measles 1</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
-      <c r="D41" s="5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.
-SUPPLEMENTARY DOSE IF MEASLES OUTBREAK.</v>
+      <c r="D41" s="5" t="str">
+        <v>Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>default</v>
@@ -1908,15 +1908,15 @@
         <v/>
       </c>
       <c r="G41" s="5" t="str">
-        <v>VNWRJ6J4WSc</v>
+        <v>g8dMiUOTFla</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>EIR - Measles 1</v>
+        <v>EIR - Measles 2</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Measles 1</v>
+        <v>Measles 2</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
@@ -1931,21 +1931,21 @@
         <v/>
       </c>
       <c r="G42" s="4" t="str">
-        <v>g8dMiUOTFla</v>
+        <v>Bxh1xgIY9nA</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>EIR - Measles 2</v>
+        <v>EIR - Meningococcal 2</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Measles 2</v>
+        <v>Meningococcal 2</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+        <v/>
       </c>
       <c r="E43" s="5" t="str">
         <v>default</v>
@@ -1954,15 +1954,15 @@
         <v/>
       </c>
       <c r="G43" s="5" t="str">
-        <v>Bxh1xgIY9nA</v>
+        <v>qjMV4moz3Ql</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>EIR - Measles not given</v>
+        <v>EIR - MR2</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Measles not given</v>
+        <v>MR2</v>
       </c>
       <c r="C44" s="4" t="str">
         <v/>
@@ -1977,15 +1977,15 @@
         <v/>
       </c>
       <c r="G44" s="4" t="str">
-        <v>n4qKY8vxc7V</v>
+        <v>KEakw1ZjmUr</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>EIR - Meningococcal 1</v>
+        <v>EIR - Nonserious adverse event following immunization</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Meningococcal 1</v>
+        <v>Non-serious AEFI</v>
       </c>
       <c r="C45" s="5" t="str">
         <v/>
@@ -2000,15 +2000,15 @@
         <v/>
       </c>
       <c r="G45" s="5" t="str">
-        <v>W02zBOCKfw6</v>
+        <v>WrnBsYluDf4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>EIR - Meningococcal 2</v>
+        <v>EIR - Other Signs and symptoms</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Meningococcal 2</v>
+        <v>EPI - Other Signs and symptoms</v>
       </c>
       <c r="C46" s="4" t="str">
         <v/>
@@ -2023,15 +2023,15 @@
         <v/>
       </c>
       <c r="G46" s="4" t="str">
-        <v>qjMV4moz3Ql</v>
+        <v>OwuxWuHerlR</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>EIR - MMR1</v>
+        <v>EIR - PCV 2</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>MMR1</v>
+        <v>PCV 2</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
@@ -2046,15 +2046,15 @@
         <v/>
       </c>
       <c r="G47" s="5" t="str">
-        <v>wpadSrcnZsO</v>
+        <v>PvHUllrtPiy</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>EIR - MMR2</v>
+        <v>EIR - PCV 3</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>MMR2</v>
+        <v>PCV 3</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
@@ -2069,21 +2069,21 @@
         <v/>
       </c>
       <c r="G48" s="4" t="str">
-        <v>erxkQb95nXx</v>
+        <v>B4eJCy6LFLZ</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>EIR - mOPV</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>mOPV</v>
+        <v>Pentavalent (DPT-HepB-Hib) 2</v>
       </c>
       <c r="C49" s="5" t="str">
         <v/>
       </c>
       <c r="D49" s="5" t="str">
-        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>default</v>
@@ -2092,21 +2092,21 @@
         <v/>
       </c>
       <c r="G49" s="5" t="str">
-        <v>VkegZmJsUS8</v>
+        <v>GPOoPDqle3V</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>EIR - MR1</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 3</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>MR1</v>
+        <v>Pentavalent (DPT-HepB-Hib) 3</v>
       </c>
       <c r="C50" s="4" t="str">
         <v/>
       </c>
       <c r="D50" s="4" t="str">
-        <v/>
+        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>default</v>
@@ -2115,15 +2115,15 @@
         <v/>
       </c>
       <c r="G50" s="4" t="str">
-        <v>OKhx1HFPhRs</v>
+        <v>pxCZNoqDVJC</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>EIR - MR2</v>
+        <v>EIR - Persistent or significant disability</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>MR2</v>
+        <v>EPI - Persistent or significant disability</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -2138,15 +2138,15 @@
         <v/>
       </c>
       <c r="G51" s="5" t="str">
-        <v>KEakw1ZjmUr</v>
+        <v>RJVYDrodCWP</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>EIR - OPV not given</v>
+        <v>EIR - Rabies 2</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>OPV not given</v>
+        <v>Rabies 2</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
@@ -2161,21 +2161,21 @@
         <v/>
       </c>
       <c r="G52" s="4" t="str">
-        <v>EYQp1U4tU9z</v>
+        <v>Py5GHJS2tdN</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>EIR - PCV 1</v>
+        <v>EIR - Redness</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>PCV 1</v>
+        <v>EPI - Redness</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
       </c>
       <c r="D53" s="5" t="str">
-        <v/>
+        <v>Local reaction at the vaccine site; redness</v>
       </c>
       <c r="E53" s="5" t="str">
         <v>default</v>
@@ -2184,15 +2184,15 @@
         <v/>
       </c>
       <c r="G53" s="5" t="str">
-        <v>fmXCCPENnwR</v>
+        <v>TR57DWCiusw</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>EIR - PCV 2</v>
+        <v>EIR - Rubella not given</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>PCV 2</v>
+        <v>Rubella not given</v>
       </c>
       <c r="C54" s="4" t="str">
         <v/>
@@ -2207,21 +2207,21 @@
         <v/>
       </c>
       <c r="G54" s="4" t="str">
-        <v>PvHUllrtPiy</v>
+        <v>vmxWGaFgvvq</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>EIR - PCV 3</v>
+        <v>EIR - RV 2 (Rotarix)</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>PCV 3</v>
+        <v>RV 2 (Rotarix)</v>
       </c>
       <c r="C55" s="5" t="str">
         <v/>
       </c>
       <c r="D55" s="5" t="str">
-        <v/>
+        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
       </c>
       <c r="E55" s="5" t="str">
         <v>default</v>
@@ -2230,15 +2230,15 @@
         <v/>
       </c>
       <c r="G55" s="5" t="str">
-        <v>B4eJCy6LFLZ</v>
+        <v>wYg2gOWSyJG</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>EIR - PCV not given</v>
+        <v>EIR - Serious adverse event following immunization</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>PCV not given</v>
+        <v>EPI - Serious adverse event following immunization</v>
       </c>
       <c r="C56" s="4" t="str">
         <v/>
@@ -2253,21 +2253,21 @@
         <v/>
       </c>
       <c r="G56" s="4" t="str">
-        <v>fyvXreKLZNn</v>
+        <v>oxa7COsVggZ</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
+        <v>EIR - Show All immunization doses (explanation)</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Pentavalent (DPT-HepB-Hib) 1</v>
+        <v>Show all doses_Explain</v>
       </c>
       <c r="C57" s="5" t="str">
         <v/>
       </c>
       <c r="D57" s="5" t="str">
-        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
+        <v>Must enter at least 5 characters to show all doses.</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>default</v>
@@ -2276,21 +2276,21 @@
         <v/>
       </c>
       <c r="G57" s="5" t="str">
-        <v>K3TcJM1ySQA</v>
+        <v>eZnkuQCWjgf</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
+        <v>EIR - Show All non routine immunization doses (explanation)</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Pentavalent (DPT-HepB-Hib) 2</v>
+        <v>Show all non routine doses_Explain</v>
       </c>
       <c r="C58" s="4" t="str">
         <v/>
       </c>
       <c r="D58" s="4" t="str">
-        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
+        <v>Must enter at least 5 characters to show all doses.</v>
       </c>
       <c r="E58" s="4" t="str">
         <v>default</v>
@@ -2299,21 +2299,21 @@
         <v/>
       </c>
       <c r="G58" s="4" t="str">
-        <v>GPOoPDqle3V</v>
+        <v>Y5pZ6PwFl1v</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 3</v>
+        <v>EIR - Show Non Routine immunization (checkbox)</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>Pentavalent (DPT-HepB-Hib) 3</v>
+        <v>Show Non Routine immunization</v>
       </c>
       <c r="C59" s="5" t="str">
         <v/>
       </c>
       <c r="D59" s="5" t="str">
-        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
+        <v/>
       </c>
       <c r="E59" s="5" t="str">
         <v>default</v>
@@ -2322,15 +2322,15 @@
         <v/>
       </c>
       <c r="G59" s="5" t="str">
-        <v>pxCZNoqDVJC</v>
+        <v>Cp4GRpm57OD</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>EIR - Pentavalent not given</v>
+        <v>EIR - Tdap (Td and ap containing) 1</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>Pentavalent not given</v>
+        <v>Tdap (Td and ap containing) 1</v>
       </c>
       <c r="C60" s="4" t="str">
         <v/>
@@ -2345,15 +2345,15 @@
         <v/>
       </c>
       <c r="G60" s="4" t="str">
-        <v>LQVqn0ghg99</v>
+        <v>lbcmdWHt63Q</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>EIR - Rabies 1</v>
+        <v>EIR - Tick-Borne Encephalitis 1</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>Rabies 1</v>
+        <v>Tick-Borne Encephalitis 1</v>
       </c>
       <c r="C61" s="5" t="str">
         <v/>
@@ -2368,15 +2368,15 @@
         <v/>
       </c>
       <c r="G61" s="5" t="str">
-        <v>oVlOKPZPaFm</v>
+        <v>fXpONYiBkKo</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>EIR - Rabies 2</v>
+        <v>EIR - Typhoid (Ty21a) 1</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>Rabies 2</v>
+        <v>Typhoid (Ty21a) 1</v>
       </c>
       <c r="C62" s="4" t="str">
         <v/>
@@ -2391,21 +2391,21 @@
         <v/>
       </c>
       <c r="G62" s="4" t="str">
-        <v>Py5GHJS2tdN</v>
+        <v>HLwoyFyqcG0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
+        <v>EIR - Typhoid (Ty21a) 2</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>Recent infection with a temperature &gt; 39 degree C</v>
+        <v>Typhoid (Ty21a) 2</v>
       </c>
       <c r="C63" s="5" t="str">
         <v/>
       </c>
       <c r="D63" s="5" t="str">
-        <v>Be aware, it is advisable to defer PCV Pneumococcal (Conjugate), and Rotavirus vaccinations until after an acute infection with temperature &gt;39 degrees C.</v>
+        <v/>
       </c>
       <c r="E63" s="5" t="str">
         <v>default</v>
@@ -2414,21 +2414,21 @@
         <v/>
       </c>
       <c r="G63" s="5" t="str">
-        <v>zpyTHpOZVnc</v>
+        <v>UGx2U7O5gXY</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>EIR - Rubella 1</v>
+        <v>EIR - Typhoid (Ty21a) 3</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>Rubella 1</v>
+        <v>Typhoid (Ty21a) 3</v>
       </c>
       <c r="C64" s="4" t="str">
         <v/>
       </c>
       <c r="D64" s="4" t="str">
-        <v>Rubella. 1 dose. 9 or 12 months with containing measles vaccine. As a general rule, live vaccines should be given either simultaneously, or at least 4 weeks apart. Oral polio vaccine is the exception and can be given any time before or after RCA. Interference may occur between MMR and yellow fever vaccines if they are simultaneously administered to children &lt; 2 years of age. If the child has received blood products &lt;3 months, postpone vaccination. If possible receiving blood products should be avoided for up to 2 weeks post vaccination.</v>
+        <v/>
       </c>
       <c r="E64" s="4" t="str">
         <v>default</v>
@@ -2437,15 +2437,15 @@
         <v/>
       </c>
       <c r="G64" s="4" t="str">
-        <v>q7KhhAnm5GA</v>
+        <v>GF2axG9TnnA</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>EIR - Rubella not given</v>
+        <v>EIR - Typhoid (Ty21a) 4</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>Rubella not given</v>
+        <v>Typhoid (Ty21a) 4</v>
       </c>
       <c r="C65" s="5" t="str">
         <v/>
@@ -2460,21 +2460,21 @@
         <v/>
       </c>
       <c r="G65" s="5" t="str">
-        <v>vmxWGaFgvvq</v>
+        <v>nqc2S6wDOI8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>EIR - RV 1 (Rotarix)</v>
+        <v>EIR - Vaccination 4 date</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>RV 1 (Rotarix)</v>
+        <v>EIR - Vaccination 4 date</v>
       </c>
       <c r="C66" s="4" t="str">
         <v/>
       </c>
       <c r="D66" s="4" t="str">
-        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E66" s="4" t="str">
         <v>default</v>
@@ -2483,21 +2483,21 @@
         <v/>
       </c>
       <c r="G66" s="4" t="str">
-        <v>nIqQYeSwU9E</v>
+        <v>MfmRCIAITnO</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>EIR - RV 1 (Rota Teq)</v>
+        <v>EIR - Vaccine 4 name</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>RV 1 (Rota Teq)</v>
+        <v>EPI - Vaccine 4 name</v>
       </c>
       <c r="C67" s="5" t="str">
         <v/>
       </c>
       <c r="D67" s="5" t="str">
-        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
       </c>
       <c r="E67" s="5" t="str">
         <v>default</v>
@@ -2506,21 +2506,21 @@
         <v/>
       </c>
       <c r="G67" s="5" t="str">
-        <v>Y3eDHMTcSYk</v>
+        <v>Ln1AD3eTpZ5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>EIR - RV 2 (Rotarix)</v>
+        <v>EIR - Vaccine Schedule Unlock date</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>RV 2 (Rotarix)</v>
+        <v>EPI - Schedule Unlock</v>
       </c>
       <c r="C68" s="4" t="str">
         <v/>
       </c>
       <c r="D68" s="4" t="str">
-        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+        <v/>
       </c>
       <c r="E68" s="4" t="str">
         <v>default</v>
@@ -2529,21 +2529,21 @@
         <v/>
       </c>
       <c r="G68" s="4" t="str">
-        <v>wYg2gOWSyJG</v>
+        <v>Vy2Bgia39T2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>EIR - RV 2 (Rota Teq)</v>
+        <v>EIR - Vaccine site other</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>RV 2 (Rota Teq)</v>
+        <v>Vaccine site other</v>
       </c>
       <c r="C69" s="5" t="str">
         <v/>
       </c>
       <c r="D69" s="5" t="str">
-        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+        <v/>
       </c>
       <c r="E69" s="5" t="str">
         <v>default</v>
@@ -2552,21 +2552,21 @@
         <v/>
       </c>
       <c r="G69" s="5" t="str">
-        <v>knh2BOb3F0I</v>
+        <v>JaaBL3gg38M</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>EIR - RV 3 (Rota Teq)</v>
+        <v>EIR - Vials Discarded</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>RV 3 (Rota Teq)</v>
+        <v>EPI - Vials Discarded</v>
       </c>
       <c r="C70" s="4" t="str">
         <v/>
       </c>
       <c r="D70" s="4" t="str">
-        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+        <v/>
       </c>
       <c r="E70" s="4" t="str">
         <v>default</v>
@@ -2575,15 +2575,15 @@
         <v/>
       </c>
       <c r="G70" s="4" t="str">
-        <v>xMkkGCwSaDK</v>
+        <v>TIlgxyquUD0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>EIR - RV not given</v>
+        <v>EIR - Weakness</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>RV not given</v>
+        <v>EPI - Weakness</v>
       </c>
       <c r="C71" s="5" t="str">
         <v/>
@@ -2598,943 +2598,943 @@
         <v/>
       </c>
       <c r="G71" s="5" t="str">
+        <v>qrNvkFCiOAQ</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>GEN - Birth type</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Birth type</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G72" s="4" t="str">
+        <v>LtlzGAPWWo8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>GEN - Birth weight (grams)</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>Birth weight (grams)</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G73" s="5" t="str">
+        <v>WUquHs0Al7h</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>GEN - Facility of birth</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>Facility of birth</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G74" s="4" t="str">
+        <v>RTA1VXtS6r1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>GEN - Gestational age</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>Gestational age</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E75" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G75" s="5" t="str">
+        <v>SaCLndgg6On</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>GEN - Village of birth</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>Village of birth</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v>If home delivery, must enter village where born</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G76" s="4" t="str">
+        <v>cCQRaVSSOsY</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>EIR - Batch/lot number (Vaccine 1)</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>EPI - Batch/lot number (Vaccine 1)</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G77" s="5" t="str">
+        <v>fQkHPYnrdzg</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>EIR - BCG not given</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>BCG not given</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G78" s="4" t="str">
+        <v>LTdvha8zapG</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>EIR - bOPV 0</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>bOPV 0</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v>bOPV (Bivalent oral polo vaccine). 1 dose. At birth/as soon after birth as possible</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G79" s="5" t="str">
+        <v>no7SkAxepi7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>EIR - bOPV 1</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>bOPV 1</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G80" s="4" t="str">
+        <v>CfPM8lsEMzH</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>EIR - Cholera 1</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>Cholera 1</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G81" s="5" t="str">
+        <v>K2kqY4vlUEb</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>EIR - Cholera 3</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>Cholera 3</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G82" s="4" t="str">
+        <v>bUuGVhio829</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>EIR - Congenital anomaly</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>EPI - Congenital anomaly</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G83" s="5" t="str">
+        <v>d9xTkfCi5ge</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>EIR - Dengue 1</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>Dengue 1</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G84" s="4" t="str">
+        <v>FNF2ZFECX8O</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>EIR - Doses Distributed to Patients</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>EPI - Doses Distributed to Patients</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G85" s="5" t="str">
+        <v>jGYGY934OJa</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>EIR - DTap (Td containing) 1</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>DTap (Td containing) 1</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G86" s="4" t="str">
+        <v>xmWFhjl9gE1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>EIR - Expiry date (Vaccine 3)</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v>EPI - Expiry date (Vaccine 3)</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D87" s="5" t="str">
+        <v>The date of expiry for each vaccine</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G87" s="5" t="str">
+        <v>ij0GuU5qVHT</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>EIR - Hepatitis B 1</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>Hepatitis B 1</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>Hep B (Hepatitis B) protects against a viral infection that attacks the liver. 1 monovalent dose. Given at birth. If not given at birth can be given as soon after birth as possible.</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G88" s="4" t="str">
+        <v>qEtgKXZlMLE</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>EIR - Hepatitis B not given</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>Hepatitis B not given</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G89" s="5" t="str">
+        <v>ZAUEcf9D941</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>EIR - IPV 3</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>IPV 3</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G90" s="4" t="str">
+        <v>J0dqTnGzX6T</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>EIR - IPV 4 (Booster dose)</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>IPV 4 (Booster dose)</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G91" s="5" t="str">
+        <v>OWolh3WKA3Q</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>EIR - Malaise</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>EPI - Malaise</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G92" s="4" t="str">
+        <v>OxhZdhpFPd9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v>EIR - Measles not given</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v>Measles not given</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G93" s="5" t="str">
+        <v>n4qKY8vxc7V</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v>EIR - Meningococcal 1</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>Meningococcal 1</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G94" s="4" t="str">
+        <v>W02zBOCKfw6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="str">
+        <v>EIR - MMR1</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v>MMR1</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E95" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G95" s="5" t="str">
+        <v>wpadSrcnZsO</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>EIR - MMR2</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>MMR2</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E96" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G96" s="4" t="str">
+        <v>erxkQb95nXx</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="str">
+        <v>EIR - mOPV</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v>mOPV</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D97" s="5" t="str">
+        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G97" s="5" t="str">
+        <v>VkegZmJsUS8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>EIR - MR1</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>MR1</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G98" s="4" t="str">
+        <v>OKhx1HFPhRs</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="str">
+        <v>EIR - OPV not given</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <v>OPV not given</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D99" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E99" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G99" s="5" t="str">
+        <v>EYQp1U4tU9z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>EIR - PCV 1</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>PCV 1</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>fmXCCPENnwR</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="str">
+        <v>EIR - PCV not given</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <v>PCV not given</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E101" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G101" s="5" t="str">
+        <v>fyvXreKLZNn</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>Pentavalent (DPT-HepB-Hib) 1</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D102" s="4" t="str">
+        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G102" s="4" t="str">
+        <v>K3TcJM1ySQA</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="str">
+        <v>EIR - Pentavalent not given</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <v>Pentavalent not given</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E103" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G103" s="5" t="str">
+        <v>LQVqn0ghg99</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>EIR - Rabies 1</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>Rabies 1</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E104" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G104" s="4" t="str">
+        <v>oVlOKPZPaFm</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="str">
+        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <v>Recent infection with a temperature &gt; 39 degree C</v>
+      </c>
+      <c r="C105" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D105" s="5" t="str">
+        <v>Be aware, it is advisable to defer PCV Pneumococcal (Conjugate), and Rotavirus vaccinations until after an acute infection with temperature &gt;39 degrees C.</v>
+      </c>
+      <c r="E105" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G105" s="5" t="str">
+        <v>zpyTHpOZVnc</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="str">
+        <v>EIR - Rubella 1</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <v>Rubella 1</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D106" s="4" t="str">
+        <v>Rubella. 1 dose. 9 or 12 months with containing measles vaccine. As a general rule, live vaccines should be given either simultaneously, or at least 4 weeks apart. Oral polio vaccine is the exception and can be given any time before or after RCA. Interference may occur between MMR and yellow fever vaccines if they are simultaneously administered to children &lt; 2 years of age. If the child has received blood products &lt;3 months, postpone vaccination. If possible receiving blood products should be avoided for up to 2 weeks post vaccination.</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G106" s="4" t="str">
+        <v>q7KhhAnm5GA</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="str">
+        <v>EIR - RV 1 (Rotarix)</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <v>RV 1 (Rotarix)</v>
+      </c>
+      <c r="C107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D107" s="5" t="str">
+        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E107" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G107" s="5" t="str">
+        <v>nIqQYeSwU9E</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="str">
+        <v>EIR - RV 1 (Rota Teq)</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>RV 1 (Rota Teq)</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G108" s="4" t="str">
+        <v>Y3eDHMTcSYk</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>EIR - RV 2 (Rota Teq)</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>RV 2 (Rota Teq)</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D109" s="5" t="str">
+        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E109" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G109" s="5" t="str">
+        <v>knh2BOb3F0I</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>EIR - RV 3 (Rota Teq)</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>RV 3 (Rota Teq)</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G110" s="4" t="str">
+        <v>xMkkGCwSaDK</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>EIR - RV not given</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>RV not given</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D111" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E111" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F111" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G111" s="5" t="str">
         <v>irQPcNG21Uf</v>
       </c>
     </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" s="4" t="str">
+    <row r="112" xml:space="preserve">
+      <c r="A112" s="4" t="str">
         <v>EIR - Show All immunization doses (checkbox)</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B112" s="4" t="str">
         <v>Show all doses_Yes</v>
       </c>
-      <c r="C72" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D72" s="4" t="str" xml:space="preserve">
+      <c r="C112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D112" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">Override all program rules. This shows a free text box for explanation. 
 Must enter at least 5 characters to show all.</v>
       </c>
-      <c r="E72" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G72" s="4" t="str">
-        <v>WhUufJL8EDV</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="str">
-        <v>EIR - Show All immunization doses (explanation)</v>
-      </c>
-      <c r="B73" s="5" t="str">
-        <v>Show all doses_Explain</v>
-      </c>
-      <c r="C73" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D73" s="5" t="str">
-        <v>Must enter at least 5 characters to show all doses.</v>
-      </c>
-      <c r="E73" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F73" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G73" s="5" t="str">
-        <v>eZnkuQCWjgf</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="4" t="str">
-        <v>EIR - Show All non routine immunization doses (explanation)</v>
-      </c>
-      <c r="B74" s="4" t="str">
-        <v>Show all non routine doses_Explain</v>
-      </c>
-      <c r="C74" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D74" s="4" t="str">
-        <v>Must enter at least 5 characters to show all doses.</v>
-      </c>
-      <c r="E74" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F74" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G74" s="4" t="str">
-        <v>Y5pZ6PwFl1v</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="str">
-        <v>EIR - Show Non Routine immunization (checkbox)</v>
-      </c>
-      <c r="B75" s="5" t="str">
-        <v>Show Non Routine immunization</v>
-      </c>
-      <c r="C75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E75" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G75" s="5" t="str">
-        <v>Cp4GRpm57OD</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="str">
-        <v>EIR - Tdap (Td and ap containing) 1</v>
-      </c>
-      <c r="B76" s="4" t="str">
-        <v>Tdap (Td and ap containing) 1</v>
-      </c>
-      <c r="C76" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D76" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E76" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F76" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G76" s="4" t="str">
-        <v>lbcmdWHt63Q</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 1</v>
-      </c>
-      <c r="B77" s="5" t="str">
-        <v>Tick-Borne Encephalitis 1</v>
-      </c>
-      <c r="C77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E77" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G77" s="5" t="str">
-        <v>fXpONYiBkKo</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="4" t="str">
-        <v>EIR - Tick-Borne Encephalitis 2</v>
-      </c>
-      <c r="B78" s="4" t="str">
-        <v>Tick-Borne Encephalitis 2</v>
-      </c>
-      <c r="C78" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D78" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E78" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F78" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G78" s="4" t="str">
-        <v>Ft0cUWDPQu1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 3</v>
-      </c>
-      <c r="B79" s="5" t="str">
-        <v>Tick-Borne Encephalitis 3</v>
-      </c>
-      <c r="C79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E79" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G79" s="5" t="str">
-        <v>Twf9fM01hUq</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="str">
-        <v>EIR - Typhoid TCV (Typbar) 1</v>
-      </c>
-      <c r="B80" s="4" t="str">
-        <v>Typhoid TCV (Typbar) 1</v>
-      </c>
-      <c r="C80" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D80" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E80" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F80" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G80" s="4" t="str">
-        <v>moK8t0dksIq</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 1</v>
-      </c>
-      <c r="B81" s="5" t="str">
-        <v>Typhoid (Ty21a) 1</v>
-      </c>
-      <c r="C81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E81" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G81" s="5" t="str">
-        <v>HLwoyFyqcG0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="str">
-        <v>EIR - Typhoid (Ty21a) 2</v>
-      </c>
-      <c r="B82" s="4" t="str">
-        <v>Typhoid (Ty21a) 2</v>
-      </c>
-      <c r="C82" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D82" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E82" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F82" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G82" s="4" t="str">
-        <v>UGx2U7O5gXY</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 3</v>
-      </c>
-      <c r="B83" s="5" t="str">
-        <v>Typhoid (Ty21a) 3</v>
-      </c>
-      <c r="C83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E83" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G83" s="5" t="str">
-        <v>GF2axG9TnnA</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="str">
-        <v>EIR - Typhoid (Ty21a) 4</v>
-      </c>
-      <c r="B84" s="4" t="str">
-        <v>Typhoid (Ty21a) 4</v>
-      </c>
-      <c r="C84" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D84" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E84" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F84" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G84" s="4" t="str">
-        <v>nqc2S6wDOI8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="str">
-        <v>EIR - Typhoid (Vi PS) 1</v>
-      </c>
-      <c r="B85" s="5" t="str">
-        <v>Typhoid (Vi PS) 1</v>
-      </c>
-      <c r="C85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E85" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G85" s="5" t="str">
-        <v>Aq0jJHZtwo9</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="str">
-        <v>EIR - Update HIV status and Anaphylaxis history</v>
-      </c>
-      <c r="B86" s="4" t="str">
-        <v>HIV status and Anaphylaxis history</v>
-      </c>
-      <c r="C86" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D86" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E86" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F86" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G86" s="4" t="str">
-        <v>LoaA9ETgadk</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="str">
-        <v>EIR - Vaccination place</v>
-      </c>
-      <c r="B87" s="5" t="str">
-        <v>Vaccination place</v>
-      </c>
-      <c r="C87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E87" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G87" s="5" t="str">
-        <v>HdzfEcDLnhX</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="str">
-        <v>EIR - Vaccine Non-Routine Unlock date</v>
-      </c>
-      <c r="B88" s="4" t="str">
-        <v>EPI - Nonroutine Unlock</v>
-      </c>
-      <c r="C88" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D88" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E88" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F88" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G88" s="4" t="str">
-        <v>rpBEImeDflw</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="str">
-        <v>EIR - Vaccine Schedule Unlock date</v>
-      </c>
-      <c r="B89" s="5" t="str">
-        <v>EPI - Schedule Unlock</v>
-      </c>
-      <c r="C89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E89" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G89" s="5" t="str">
-        <v>Vy2Bgia39T2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="str">
-        <v>EIR - Varicella 1</v>
-      </c>
-      <c r="B90" s="4" t="str">
-        <v>Varicella 1</v>
-      </c>
-      <c r="C90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E90" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G90" s="4" t="str">
-        <v>mF1BqRm4QFB</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="str">
-        <v>EIR - Varicella 2</v>
-      </c>
-      <c r="B91" s="5" t="str">
-        <v>Varicella 2</v>
-      </c>
-      <c r="C91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E91" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G91" s="5" t="str">
-        <v>ZGzvVwZ8qU8</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="str">
-        <v>EIR - Yellow Fever 1</v>
-      </c>
-      <c r="B92" s="4" t="str">
-        <v>Yellow Fever 1</v>
-      </c>
-      <c r="C92" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D92" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E92" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F92" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G92" s="4" t="str">
-        <v>mH9watsYzvq</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="str">
-        <v>GEN - Attendant at birth</v>
-      </c>
-      <c r="B93" s="5" t="str">
-        <v>Attendant at birth</v>
-      </c>
-      <c r="C93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E93" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G93" s="5" t="str">
-        <v>lQtJB35vsDj</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="str">
-        <v>GEN - Birth type</v>
-      </c>
-      <c r="B94" s="4" t="str">
-        <v>Birth type</v>
-      </c>
-      <c r="C94" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D94" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E94" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F94" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G94" s="4" t="str">
-        <v>LtlzGAPWWo8</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="str">
-        <v>GEN - Birth weight (grams)</v>
-      </c>
-      <c r="B95" s="5" t="str">
-        <v>Birth weight (grams)</v>
-      </c>
-      <c r="C95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E95" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G95" s="5" t="str">
-        <v>WUquHs0Al7h</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="str">
-        <v>GEN - Facility of birth</v>
-      </c>
-      <c r="B96" s="4" t="str">
-        <v>Facility of birth</v>
-      </c>
-      <c r="C96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E96" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G96" s="4" t="str">
-        <v>RTA1VXtS6r1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="str">
-        <v>GEN - Gestational age</v>
-      </c>
-      <c r="B97" s="5" t="str">
-        <v>Gestational age</v>
-      </c>
-      <c r="C97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E97" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G97" s="5" t="str">
-        <v>SaCLndgg6On</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="str">
-        <v>GEN - Mode of delivery</v>
-      </c>
-      <c r="B98" s="4" t="str">
-        <v>Mode of delivery</v>
-      </c>
-      <c r="C98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E98" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G98" s="4" t="str">
-        <v>fF7wxNym0Un</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="str">
-        <v>GEN - Parity</v>
-      </c>
-      <c r="B99" s="5" t="str">
-        <v>Parity</v>
-      </c>
-      <c r="C99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E99" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G99" s="5" t="str">
-        <v>B5BoWbyB1sY</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="str">
-        <v>GEN - Place of birth</v>
-      </c>
-      <c r="B100" s="4" t="str">
-        <v>Place of birth</v>
-      </c>
-      <c r="C100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E100" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G100" s="4" t="str">
-        <v>ABhkInP0wGY</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="str">
-        <v>GEN - Village of birth</v>
-      </c>
-      <c r="B101" s="5" t="str">
-        <v>Village of birth</v>
-      </c>
-      <c r="C101" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D101" s="5" t="str">
-        <v>If home delivery, must enter village where born</v>
-      </c>
-      <c r="E101" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F101" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G101" s="5" t="str">
-        <v>cCQRaVSSOsY</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 1)</v>
-      </c>
-      <c r="B102" s="4" t="str">
-        <v>EPI - Batch/lot number (Vaccine 1)</v>
-      </c>
-      <c r="C102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D102" s="4" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E102" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G102" s="4" t="str">
-        <v>fQkHPYnrdzg</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="str">
-        <v>EIR - Batch/lot number (Vaccine 2)</v>
-      </c>
-      <c r="B103" s="5" t="str">
-        <v>EPI - Batch/lot number (Vaccine 2)</v>
-      </c>
-      <c r="C103" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D103" s="5" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E103" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F103" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G103" s="5" t="str">
-        <v>Dqp54QciwV7</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 3)</v>
-      </c>
-      <c r="B104" s="4" t="str">
-        <v>EPI - Batch/lot number (Vaccine 3)</v>
-      </c>
-      <c r="C104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D104" s="4" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E104" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G104" s="4" t="str">
-        <v>ltxO9JBUR2j</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="str">
-        <v>EIR - Batch/lot number (Vaccine 4)</v>
-      </c>
-      <c r="B105" s="5" t="str">
-        <v>EPI - Batch/lot number (Vaccine 4)</v>
-      </c>
-      <c r="C105" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D105" s="5" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E105" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F105" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G105" s="5" t="str">
-        <v>tI1ZKSX3fNF</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="str">
-        <v>EIR - Congenital anomaly</v>
-      </c>
-      <c r="B106" s="4" t="str">
-        <v>EPI - Congenital anomaly</v>
-      </c>
-      <c r="C106" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D106" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E106" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F106" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G106" s="4" t="str">
-        <v>d9xTkfCi5ge</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="str">
-        <v>EIR - Death</v>
-      </c>
-      <c r="B107" s="5" t="str">
-        <v>EPI - Death</v>
-      </c>
-      <c r="C107" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D107" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E107" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F107" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G107" s="5" t="str">
-        <v>nhTULOXIfQ7</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="str">
-        <v>EIR - Doses Distributed to Patients</v>
-      </c>
-      <c r="B108" s="4" t="str">
-        <v>EPI - Doses Distributed to Patients</v>
-      </c>
-      <c r="C108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E108" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G108" s="4" t="str">
-        <v>jGYGY934OJa</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 1)</v>
-      </c>
-      <c r="B109" s="5" t="str">
-        <v>EPI - Expiry date</v>
-      </c>
-      <c r="C109" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D109" s="5" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E109" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F109" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G109" s="5" t="str">
-        <v>CKlN0nulXGh</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="str">
-        <v>EIR - Expiry date (Vaccine 2)</v>
-      </c>
-      <c r="B110" s="4" t="str">
-        <v>EPI - Expiry date (Vaccine 2)</v>
-      </c>
-      <c r="C110" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D110" s="4" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F110" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G110" s="4" t="str">
-        <v>lOwMwVEPRLy</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 3)</v>
-      </c>
-      <c r="B111" s="5" t="str">
-        <v>EPI - Expiry date (Vaccine 3)</v>
-      </c>
-      <c r="C111" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D111" s="5" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E111" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F111" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G111" s="5" t="str">
-        <v>ij0GuU5qVHT</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="str">
-        <v>EIR - Expiry date (Vaccine 4)</v>
-      </c>
-      <c r="B112" s="4" t="str">
-        <v>EPI - Expiry date (Vaccine 4)</v>
-      </c>
-      <c r="C112" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D112" s="4" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
       <c r="E112" s="4" t="str">
         <v>default</v>
       </c>
@@ -3542,21 +3542,21 @@
         <v/>
       </c>
       <c r="G112" s="4" t="str">
-        <v>SwGVBiNWvVT</v>
+        <v>WhUufJL8EDV</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>EIR - Fever</v>
+        <v>EIR - Swelling</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>EPI - Fever</v>
+        <v>EPI - Swelling</v>
       </c>
       <c r="C113" s="5" t="str">
         <v/>
       </c>
       <c r="D113" s="5" t="str">
-        <v>Does the case have fever or not</v>
+        <v>Local reaction at the vaccine site; swelling.</v>
       </c>
       <c r="E113" s="5" t="str">
         <v>default</v>
@@ -3565,15 +3565,15 @@
         <v/>
       </c>
       <c r="G113" s="5" t="str">
-        <v>k5CLkBHLSti</v>
+        <v>enqsISOu1kT</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="str">
-        <v>EIR - Hospitalization</v>
+        <v>EIR - Tick-Borne Encephalitis 2</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>EPI - Hospitalization</v>
+        <v>Tick-Borne Encephalitis 2</v>
       </c>
       <c r="C114" s="4" t="str">
         <v/>
@@ -3588,15 +3588,15 @@
         <v/>
       </c>
       <c r="G114" s="4" t="str">
-        <v>aLzZB7UYZXA</v>
+        <v>Ft0cUWDPQu1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="str">
-        <v>EIR - Life threatening</v>
+        <v>EIR - Tick-Borne Encephalitis 3</v>
       </c>
       <c r="B115" s="5" t="str">
-        <v>EPI - Life threatening</v>
+        <v>Tick-Borne Encephalitis 3</v>
       </c>
       <c r="C115" s="5" t="str">
         <v/>
@@ -3611,15 +3611,15 @@
         <v/>
       </c>
       <c r="G115" s="5" t="str">
-        <v>Pw8g8zttkAW</v>
+        <v>Twf9fM01hUq</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="str">
-        <v>EIR - Malaise</v>
+        <v>EIR - Typhoid TCV (Typbar) 1</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>EPI - Malaise</v>
+        <v>Typhoid TCV (Typbar) 1</v>
       </c>
       <c r="C116" s="4" t="str">
         <v/>
@@ -3634,15 +3634,15 @@
         <v/>
       </c>
       <c r="G116" s="4" t="str">
-        <v>OxhZdhpFPd9</v>
+        <v>moK8t0dksIq</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="str">
-        <v>EIR - Nonserious adverse event following immunization</v>
+        <v>EIR - Typhoid (Vi PS) 1</v>
       </c>
       <c r="B117" s="5" t="str">
-        <v>Non-serious AEFI</v>
+        <v>Typhoid (Vi PS) 1</v>
       </c>
       <c r="C117" s="5" t="str">
         <v/>
@@ -3657,15 +3657,15 @@
         <v/>
       </c>
       <c r="G117" s="5" t="str">
-        <v>WrnBsYluDf4</v>
+        <v>Aq0jJHZtwo9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="str">
-        <v>EIR - Other Signs and symptoms</v>
+        <v>EIR - Update HIV status and Anaphylaxis history</v>
       </c>
       <c r="B118" s="4" t="str">
-        <v>EPI - Other Signs and symptoms</v>
+        <v>HIV status and Anaphylaxis history</v>
       </c>
       <c r="C118" s="4" t="str">
         <v/>
@@ -3680,21 +3680,21 @@
         <v/>
       </c>
       <c r="G118" s="4" t="str">
-        <v>OwuxWuHerlR</v>
+        <v>LoaA9ETgadk</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="str">
-        <v>EIR - Persistent or significant disability</v>
+        <v>EIR - Vaccination 1 date</v>
       </c>
       <c r="B119" s="5" t="str">
-        <v>EPI - Persistent or significant disability</v>
+        <v>EIR - Vaccination 1 date</v>
       </c>
       <c r="C119" s="5" t="str">
         <v/>
       </c>
       <c r="D119" s="5" t="str">
-        <v/>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E119" s="5" t="str">
         <v>default</v>
@@ -3703,21 +3703,21 @@
         <v/>
       </c>
       <c r="G119" s="5" t="str">
-        <v>RJVYDrodCWP</v>
+        <v>fnUUCwTR1Dh</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="str">
-        <v>EIR - Redness</v>
+        <v>EIR - Vaccination 2 date</v>
       </c>
       <c r="B120" s="4" t="str">
-        <v>EPI - Redness</v>
+        <v>EIR - Vaccination 2 date</v>
       </c>
       <c r="C120" s="4" t="str">
         <v/>
       </c>
       <c r="D120" s="4" t="str">
-        <v>Local reaction at the vaccine site; redness</v>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E120" s="4" t="str">
         <v>default</v>
@@ -3726,21 +3726,21 @@
         <v/>
       </c>
       <c r="G120" s="4" t="str">
-        <v>TR57DWCiusw</v>
+        <v>aTtk7QAT522</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="str">
-        <v>EIR - Serious adverse event following immunization</v>
+        <v>EIR - Vaccination 3 date</v>
       </c>
       <c r="B121" s="5" t="str">
-        <v>EPI - Serious adverse event following immunization</v>
+        <v>EIR - Vaccination 3 date</v>
       </c>
       <c r="C121" s="5" t="str">
         <v/>
       </c>
       <c r="D121" s="5" t="str">
-        <v/>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E121" s="5" t="str">
         <v>default</v>
@@ -3749,21 +3749,21 @@
         <v/>
       </c>
       <c r="G121" s="5" t="str">
-        <v>oxa7COsVggZ</v>
+        <v>NvUsUdzZvaQ</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="str">
-        <v>EIR - Swelling</v>
+        <v>EIR - Vaccination place</v>
       </c>
       <c r="B122" s="4" t="str">
-        <v>EPI - Swelling</v>
+        <v>Vaccination place</v>
       </c>
       <c r="C122" s="4" t="str">
         <v/>
       </c>
       <c r="D122" s="4" t="str">
-        <v>Local reaction at the vaccine site; swelling.</v>
+        <v/>
       </c>
       <c r="E122" s="4" t="str">
         <v>default</v>
@@ -3772,21 +3772,21 @@
         <v/>
       </c>
       <c r="G122" s="4" t="str">
-        <v>enqsISOu1kT</v>
+        <v>HdzfEcDLnhX</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="str">
-        <v>EIR - Vaccination 1 date</v>
+        <v>EIR - Vaccine 1 name</v>
       </c>
       <c r="B123" s="5" t="str">
-        <v>EIR - Vaccination 1 date</v>
+        <v>EPI - Vaccine 1 name</v>
       </c>
       <c r="C123" s="5" t="str">
         <v/>
       </c>
       <c r="D123" s="5" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
       </c>
       <c r="E123" s="5" t="str">
         <v>default</v>
@@ -3795,21 +3795,21 @@
         <v/>
       </c>
       <c r="G123" s="5" t="str">
-        <v>fnUUCwTR1Dh</v>
+        <v>PbvYJpzsn0f</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="str">
-        <v>EIR - Vaccination 2 date</v>
+        <v>EIR - Vaccine 2 name</v>
       </c>
       <c r="B124" s="4" t="str">
-        <v>EIR - Vaccination 2 date</v>
+        <v>EPI - Vaccine 2 name</v>
       </c>
       <c r="C124" s="4" t="str">
         <v/>
       </c>
       <c r="D124" s="4" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
       </c>
       <c r="E124" s="4" t="str">
         <v>default</v>
@@ -3818,21 +3818,21 @@
         <v/>
       </c>
       <c r="G124" s="4" t="str">
-        <v>aTtk7QAT522</v>
+        <v>xq6memI5KHI</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="str">
-        <v>EIR - Vaccination 3 date</v>
+        <v>EIR - Vaccine 3 name</v>
       </c>
       <c r="B125" s="5" t="str">
-        <v>EIR - Vaccination 3 date</v>
+        <v>EPI - Vaccine 3 name</v>
       </c>
       <c r="C125" s="5" t="str">
         <v/>
       </c>
       <c r="D125" s="5" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
       </c>
       <c r="E125" s="5" t="str">
         <v>default</v>
@@ -3841,21 +3841,21 @@
         <v/>
       </c>
       <c r="G125" s="5" t="str">
-        <v>NvUsUdzZvaQ</v>
+        <v>wwLBNaLV0gO</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="str">
-        <v>EIR - Vaccination 4 date</v>
+        <v>EIR - Vaccine given at public site</v>
       </c>
       <c r="B126" s="4" t="str">
-        <v>EIR - Vaccination 4 date</v>
+        <v>Vaccine given at public site</v>
       </c>
       <c r="C126" s="4" t="str">
         <v/>
       </c>
       <c r="D126" s="4" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v/>
       </c>
       <c r="E126" s="4" t="str">
         <v>default</v>
@@ -3864,21 +3864,21 @@
         <v/>
       </c>
       <c r="G126" s="4" t="str">
-        <v>MfmRCIAITnO</v>
+        <v>M2UrlibxQ46</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="str">
-        <v>EIR - Vaccine 1 name</v>
+        <v>EIR - Vaccine Non-Routine Unlock date</v>
       </c>
       <c r="B127" s="5" t="str">
-        <v>EPI - Vaccine 1 name</v>
+        <v>EPI - Nonroutine Unlock</v>
       </c>
       <c r="C127" s="5" t="str">
         <v/>
       </c>
       <c r="D127" s="5" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v/>
       </c>
       <c r="E127" s="5" t="str">
         <v>default</v>
@@ -3887,21 +3887,21 @@
         <v/>
       </c>
       <c r="G127" s="5" t="str">
-        <v>PbvYJpzsn0f</v>
+        <v>rpBEImeDflw</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="str">
-        <v>EIR - Vaccine 2 name</v>
+        <v>EIR - Vaccine site</v>
       </c>
       <c r="B128" s="4" t="str">
-        <v>EPI - Vaccine 2 name</v>
+        <v>Vaccine site</v>
       </c>
       <c r="C128" s="4" t="str">
         <v/>
       </c>
       <c r="D128" s="4" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v/>
       </c>
       <c r="E128" s="4" t="str">
         <v>default</v>
@@ -3910,21 +3910,21 @@
         <v/>
       </c>
       <c r="G128" s="4" t="str">
-        <v>xq6memI5KHI</v>
+        <v>Rm7PlAz6udF</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="str">
-        <v>EIR - Vaccine 3 name</v>
+        <v>EIR - Varicella 1</v>
       </c>
       <c r="B129" s="5" t="str">
-        <v>EPI - Vaccine 3 name</v>
+        <v>Varicella 1</v>
       </c>
       <c r="C129" s="5" t="str">
         <v/>
       </c>
       <c r="D129" s="5" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v/>
       </c>
       <c r="E129" s="5" t="str">
         <v>default</v>
@@ -3933,21 +3933,21 @@
         <v/>
       </c>
       <c r="G129" s="5" t="str">
-        <v>wwLBNaLV0gO</v>
+        <v>mF1BqRm4QFB</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="str">
-        <v>EIR - Vaccine 4 name</v>
+        <v>EIR - Varicella 2</v>
       </c>
       <c r="B130" s="4" t="str">
-        <v>EPI - Vaccine 4 name</v>
+        <v>Varicella 2</v>
       </c>
       <c r="C130" s="4" t="str">
         <v/>
       </c>
       <c r="D130" s="4" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v/>
       </c>
       <c r="E130" s="4" t="str">
         <v>default</v>
@@ -3956,15 +3956,15 @@
         <v/>
       </c>
       <c r="G130" s="4" t="str">
-        <v>Ln1AD3eTpZ5</v>
+        <v>ZGzvVwZ8qU8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="str">
-        <v>EIR - Vaccine given at public site</v>
+        <v>EIR - Vials on Hand</v>
       </c>
       <c r="B131" s="5" t="str">
-        <v>Vaccine given at public site</v>
+        <v>EPI - Vials on Hand</v>
       </c>
       <c r="C131" s="5" t="str">
         <v/>
@@ -3979,15 +3979,15 @@
         <v/>
       </c>
       <c r="G131" s="5" t="str">
-        <v>M2UrlibxQ46</v>
+        <v>eNl6EKSFbJ0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="str">
-        <v>EIR - Vaccine site</v>
+        <v>EIR - Vials Received</v>
       </c>
       <c r="B132" s="4" t="str">
-        <v>Vaccine site</v>
+        <v>EPI - Vials Received</v>
       </c>
       <c r="C132" s="4" t="str">
         <v/>
@@ -4002,15 +4002,15 @@
         <v/>
       </c>
       <c r="G132" s="4" t="str">
-        <v>Rm7PlAz6udF</v>
+        <v>PGlhRO1cBQJ</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="str">
-        <v>EIR - Vaccine site other</v>
+        <v>EIR - Vials Redistributed</v>
       </c>
       <c r="B133" s="5" t="str">
-        <v>Vaccine site other</v>
+        <v>EPI - Vials Redistributed</v>
       </c>
       <c r="C133" s="5" t="str">
         <v/>
@@ -4025,15 +4025,15 @@
         <v/>
       </c>
       <c r="G133" s="5" t="str">
-        <v>JaaBL3gg38M</v>
+        <v>YVqrsUuxegW</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="str">
-        <v>EIR - Vials Discarded</v>
+        <v>EIR - Yellow Fever 1</v>
       </c>
       <c r="B134" s="4" t="str">
-        <v>EPI - Vials Discarded</v>
+        <v>Yellow Fever 1</v>
       </c>
       <c r="C134" s="4" t="str">
         <v/>
@@ -4048,15 +4048,15 @@
         <v/>
       </c>
       <c r="G134" s="4" t="str">
-        <v>TIlgxyquUD0</v>
+        <v>mH9watsYzvq</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="str">
-        <v>EIR - Vials on Hand</v>
+        <v>GEN - Attendant at birth</v>
       </c>
       <c r="B135" s="5" t="str">
-        <v>EPI - Vials on Hand</v>
+        <v>Attendant at birth</v>
       </c>
       <c r="C135" s="5" t="str">
         <v/>
@@ -4071,15 +4071,15 @@
         <v/>
       </c>
       <c r="G135" s="5" t="str">
-        <v>eNl6EKSFbJ0</v>
+        <v>lQtJB35vsDj</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="str">
-        <v>EIR - Vials Received</v>
+        <v>GEN - Mode of delivery</v>
       </c>
       <c r="B136" s="4" t="str">
-        <v>EPI - Vials Received</v>
+        <v>Mode of delivery</v>
       </c>
       <c r="C136" s="4" t="str">
         <v/>
@@ -4094,15 +4094,15 @@
         <v/>
       </c>
       <c r="G136" s="4" t="str">
-        <v>PGlhRO1cBQJ</v>
+        <v>fF7wxNym0Un</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="str">
-        <v>EIR - Vials Redistributed</v>
+        <v>GEN - Parity</v>
       </c>
       <c r="B137" s="5" t="str">
-        <v>EPI - Vials Redistributed</v>
+        <v>Parity</v>
       </c>
       <c r="C137" s="5" t="str">
         <v/>
@@ -4117,15 +4117,15 @@
         <v/>
       </c>
       <c r="G137" s="5" t="str">
-        <v>YVqrsUuxegW</v>
+        <v>B5BoWbyB1sY</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="str">
-        <v>EIR - Weakness</v>
+        <v>GEN - Place of birth</v>
       </c>
       <c r="B138" s="4" t="str">
-        <v>EPI - Weakness</v>
+        <v>Place of birth</v>
       </c>
       <c r="C138" s="4" t="str">
         <v/>
@@ -4140,7 +4140,7 @@
         <v/>
       </c>
       <c r="G138" s="4" t="str">
-        <v>qrNvkFCiOAQ</v>
+        <v>ABhkInP0wGY</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +4235,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>EIR - Birth registration date</v>
+        <v>GEN - Birth type</v>
       </c>
     </row>
     <row r="11">
@@ -4243,7 +4243,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>EIR - IPV 1</v>
+        <v>EIR - Birth registration date</v>
       </c>
     </row>
     <row r="12">
@@ -4251,7 +4251,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>EIR - DTwP (Td containing) 1</v>
+        <v>EIR - IPV 1</v>
       </c>
     </row>
     <row r="13">
@@ -4259,7 +4259,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 1)</v>
+        <v>EIR - DTwP (Td containing) 1</v>
       </c>
     </row>
     <row r="14">
@@ -4267,7 +4267,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>EIR - Has the CRVS system been notified?</v>
+        <v>EIR - Expiry date (Vaccine 1)</v>
       </c>
     </row>
     <row r="15">
@@ -4275,7 +4275,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>EIR - Measles 1</v>
+        <v>EIR - Has the CRVS system been notified?</v>
       </c>
     </row>
     <row r="16">
@@ -4283,7 +4283,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>EIR - HPV 1</v>
+        <v>EIR - Measles 1</v>
       </c>
     </row>
     <row r="17">
@@ -4291,7 +4291,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>EIR - HPV 2</v>
+        <v>EIR - HPV 1</v>
       </c>
     </row>
     <row r="18">
@@ -4299,7 +4299,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>EIR - Vials Discarded</v>
+        <v>EIR - HPV 2</v>
       </c>
     </row>
     <row r="19">
@@ -4307,7 +4307,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>EIR - BCG 0.05mL</v>
+        <v>EIR - Vials Discarded</v>
       </c>
     </row>
     <row r="20">
@@ -4315,7 +4315,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>EIR - RV 2 (Rotarix)</v>
+        <v>EIR - BCG 0.05mL</v>
       </c>
     </row>
     <row r="21">
@@ -4323,7 +4323,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
+        <v>EIR - RV 2 (Rotarix)</v>
       </c>
     </row>
     <row r="22">
@@ -4331,7 +4331,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>EIR - Show All immunization doses (explanation)</v>
+        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
       </c>
     </row>
     <row r="23">
@@ -4339,7 +4339,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>EIR - Hospitalization</v>
+        <v>EIR - Show All immunization doses (explanation)</v>
       </c>
     </row>
     <row r="24">
@@ -4347,7 +4347,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>EIR - Measles 2</v>
+        <v>EIR - Hospitalization</v>
       </c>
     </row>
     <row r="25">
@@ -4355,7 +4355,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>EIR - Tdap (Td and ap containing) 1</v>
+        <v>EIR - Measles 2</v>
       </c>
     </row>
     <row r="26">
@@ -4363,7 +4363,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>EIR - Tick-Borne Encephalitis 1</v>
+        <v>EIR - Tdap (Td and ap containing) 1</v>
       </c>
     </row>
     <row r="27">
@@ -4371,7 +4371,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>EIR - Death</v>
+        <v>EIR - Tick-Borne Encephalitis 1</v>
       </c>
     </row>
     <row r="28">
@@ -4379,7 +4379,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 2)</v>
+        <v>EIR - Death</v>
       </c>
     </row>
     <row r="29">
@@ -4387,7 +4387,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>EIR - PCV 3</v>
+        <v>EIR - Batch/lot number (Vaccine 2)</v>
       </c>
     </row>
     <row r="30">
@@ -4395,7 +4395,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 3</v>
+        <v>EIR - PCV 3</v>
       </c>
     </row>
     <row r="31">
@@ -4403,7 +4403,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>EIR - Rubella not given</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 3</v>
       </c>
     </row>
     <row r="32">
@@ -4411,7 +4411,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>EIR - Persistent or significant disability</v>
+        <v>EIR - Rubella not given</v>
       </c>
     </row>
     <row r="33">
@@ -4419,7 +4419,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>EIR - Hepatitis A 1</v>
+        <v>EIR - Persistent or significant disability</v>
       </c>
     </row>
     <row r="34">
@@ -4427,7 +4427,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>EIR - Life threatening</v>
+        <v>EIR - Hepatitis A 1</v>
       </c>
     </row>
     <row r="35">
@@ -4435,7 +4435,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>EIR - Has the birth certificate been delivered to the parents?</v>
+        <v>EIR - Life threatening</v>
       </c>
     </row>
     <row r="36">
@@ -4443,7 +4443,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>EIR - Rabies 2</v>
+        <v>EIR - Has the birth certificate been delivered to the parents?</v>
       </c>
     </row>
     <row r="37">
@@ -4451,7 +4451,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>EIR - Cholera 2</v>
+        <v>EIR - Rabies 2</v>
       </c>
     </row>
     <row r="38">
@@ -4459,7 +4459,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>EIR - Hepatitis B 3</v>
+        <v>EIR - Cholera 2</v>
       </c>
     </row>
     <row r="39">
@@ -4467,7 +4467,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 1</v>
+        <v>EIR - Hepatitis B 3</v>
       </c>
     </row>
     <row r="40">
@@ -4475,7 +4475,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>EIR - Measles 0</v>
+        <v>EIR - Typhoid (Ty21a) 1</v>
       </c>
     </row>
     <row r="41">
@@ -4483,7 +4483,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>EIR - MR2</v>
+        <v>GEN - Village of birth</v>
       </c>
     </row>
     <row r="42">
@@ -4491,7 +4491,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>EIR - Show All non routine immunization doses (explanation)</v>
+        <v>EIR - Measles 0</v>
       </c>
     </row>
     <row r="43">
@@ -4499,7 +4499,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>EIR - BCG 0.1mL</v>
+        <v>EIR - MR2</v>
       </c>
     </row>
     <row r="44">
@@ -4507,7 +4507,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>EIR - Show Non Routine immunization (checkbox)</v>
+        <v>EIR - Show All non routine immunization doses (explanation)</v>
       </c>
     </row>
     <row r="45">
@@ -4515,7 +4515,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>EIR - Other Signs and symptoms</v>
+        <v>EIR - BCG 0.1mL</v>
       </c>
     </row>
     <row r="46">
@@ -4523,7 +4523,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>EIR - Vaccination 4 date</v>
+        <v>EIR - Show Non Routine immunization (checkbox)</v>
       </c>
     </row>
     <row r="47">
@@ -4531,7 +4531,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>EIR - bOPV 2</v>
+        <v>EIR - Other Signs and symptoms</v>
       </c>
     </row>
     <row r="48">
@@ -4539,7 +4539,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>EIR - Meningococcal 2</v>
+        <v>EIR - Vaccination 4 date</v>
       </c>
     </row>
     <row r="49">
@@ -4547,7 +4547,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>EIR - Fever</v>
+        <v>EIR - bOPV 2</v>
       </c>
     </row>
     <row r="50">
@@ -4555,7 +4555,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>EIR - History of Anaphylactic reaction</v>
+        <v>EIR - Meningococcal 2</v>
       </c>
     </row>
     <row r="51">
@@ -4563,7 +4563,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>EIR - Redness</v>
+        <v>EIR - Fever</v>
       </c>
     </row>
     <row r="52">
@@ -4571,7 +4571,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>EIR - Dengue 2</v>
+        <v>EIR - History of Anaphylactic reaction</v>
       </c>
     </row>
     <row r="53">
@@ -4579,7 +4579,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>EIR - Vaccine site other</v>
+        <v>EIR - Redness</v>
       </c>
     </row>
     <row r="54">
@@ -4587,7 +4587,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>EIR - Serious adverse event following immunization</v>
+        <v>GEN - Facility of birth</v>
       </c>
     </row>
     <row r="55">
@@ -4595,7 +4595,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 2</v>
+        <v>EIR - Dengue 2</v>
       </c>
     </row>
     <row r="56">
@@ -4603,7 +4603,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>EIR - IPV not given</v>
+        <v>EIR - Vaccine site other</v>
       </c>
     </row>
     <row r="57">
@@ -4611,7 +4611,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
+        <v>EIR - Serious adverse event following immunization</v>
       </c>
     </row>
     <row r="58">
@@ -4619,7 +4619,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>EIR - IPV 2</v>
+        <v>EIR - Typhoid (Ty21a) 2</v>
       </c>
     </row>
     <row r="59">
@@ -4627,7 +4627,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>EIR - Vaccine 4 name</v>
+        <v>EIR - IPV not given</v>
       </c>
     </row>
     <row r="60">
@@ -4635,7 +4635,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>EIR - DPT (Booster) 1</v>
+        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
       </c>
     </row>
     <row r="61">
@@ -4643,7 +4643,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 2)</v>
+        <v>EIR - IPV 2</v>
       </c>
     </row>
     <row r="62">
@@ -4651,7 +4651,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>EIR - Weakness</v>
+        <v>EIR - Vaccine 4 name</v>
       </c>
     </row>
     <row r="63">
@@ -4659,7 +4659,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
+        <v>EIR - DPT (Booster) 1</v>
       </c>
     </row>
     <row r="64">
@@ -4667,7 +4667,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>EIR - bOPV 3</v>
+        <v>EIR - Expiry date (Vaccine 2)</v>
       </c>
     </row>
     <row r="65">
@@ -4675,7 +4675,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>EIR - Hepatitis B 2</v>
+        <v>EIR - Weakness</v>
       </c>
     </row>
     <row r="66">
@@ -4683,7 +4683,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>EIR - Dengue 3</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
       </c>
     </row>
     <row r="67">
@@ -4691,7 +4691,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 4)</v>
+        <v>EIR - bOPV 3</v>
       </c>
     </row>
     <row r="68">
@@ -4699,7 +4699,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>EIR - bOPV 4</v>
+        <v>EIR - Hepatitis B 2</v>
       </c>
     </row>
     <row r="69">
@@ -4707,7 +4707,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 4</v>
+        <v>EIR - Dengue 3</v>
       </c>
     </row>
     <row r="70">
@@ -4715,7 +4715,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
+        <v>EIR - Expiry date (Vaccine 4)</v>
       </c>
     </row>
     <row r="71">
@@ -4723,7 +4723,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>EIR - PCV 2</v>
+        <v>EIR - bOPV 4</v>
       </c>
     </row>
     <row r="72">
@@ -4731,7 +4731,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>EIR - Pentavalent not given</v>
+        <v>GEN - Birth weight (grams)</v>
       </c>
     </row>
     <row r="73">
@@ -4739,7 +4739,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>EIR - Dengue 1</v>
+        <v>EIR - Typhoid (Ty21a) 4</v>
       </c>
     </row>
     <row r="74">
@@ -4747,7 +4747,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>EIR - BCG not given</v>
+        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
       </c>
     </row>
     <row r="75">
@@ -4755,7 +4755,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>EIR - Hepatitis B 1</v>
+        <v>EIR - PCV 2</v>
       </c>
     </row>
     <row r="76">
@@ -4763,7 +4763,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>EIR - RV not given</v>
+        <v>GEN - Gestational age</v>
       </c>
     </row>
     <row r="77">
@@ -4771,7 +4771,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>EIR - RV 1 (Rota Teq)</v>
+        <v>EIR - Pentavalent not given</v>
       </c>
     </row>
     <row r="78">
@@ -4779,7 +4779,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>EIR - Yellow Fever 1</v>
+        <v>EIR - Dengue 1</v>
       </c>
     </row>
     <row r="79">
@@ -4787,7 +4787,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>EIR - Varicella 2</v>
+        <v>EIR - BCG not given</v>
       </c>
     </row>
     <row r="80">
@@ -4795,7 +4795,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>EIR - Rabies 1</v>
+        <v>EIR - Hepatitis B 1</v>
       </c>
     </row>
     <row r="81">
@@ -4803,7 +4803,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>EIR - Doses Distributed to Patients</v>
+        <v>EIR - RV not given</v>
       </c>
     </row>
     <row r="82">
@@ -4811,7 +4811,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>EIR - Tick-Borne Encephalitis 2</v>
+        <v>EIR - RV 1 (Rota Teq)</v>
       </c>
     </row>
     <row r="83">
@@ -4819,7 +4819,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>EIR - Show All immunization doses (checkbox)</v>
+        <v>GEN - Mode of delivery</v>
       </c>
     </row>
     <row r="84">
@@ -4827,7 +4827,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>EIR - Varicella 1</v>
+        <v>EIR - Yellow Fever 1</v>
       </c>
     </row>
     <row r="85">
@@ -4835,7 +4835,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
+        <v>EIR - Varicella 2</v>
       </c>
     </row>
     <row r="86">
@@ -4843,7 +4843,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>EIR - Vaccine Non-Routine Unlock date</v>
+        <v>EIR - Rabies 1</v>
       </c>
     </row>
     <row r="87">
@@ -4851,7 +4851,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>EIR - Vaccination 1 date</v>
+        <v>EIR - Doses Distributed to Patients</v>
       </c>
     </row>
     <row r="88">
@@ -4859,7 +4859,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>EIR - Meningococcal 1</v>
+        <v>EIR - Tick-Borne Encephalitis 2</v>
       </c>
     </row>
     <row r="89">
@@ -4867,7 +4867,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>EIR - Vaccine site</v>
+        <v>EIR - Show All immunization doses (checkbox)</v>
       </c>
     </row>
     <row r="90">
@@ -4875,7 +4875,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>EIR - IPV 3</v>
+        <v>EIR - Varicella 1</v>
       </c>
     </row>
     <row r="91">
@@ -4883,7 +4883,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>EIR - bOPV 1</v>
+        <v>GEN - Place of birth</v>
       </c>
     </row>
     <row r="92">
@@ -4891,7 +4891,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>EIR - Typhoid TCV (Typbar) 1</v>
+        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
       </c>
     </row>
     <row r="93">
@@ -4899,7 +4899,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>EIR - Vaccine given at public site</v>
+        <v>EIR - Vaccine Non-Routine Unlock date</v>
       </c>
     </row>
     <row r="94">
@@ -4907,7 +4907,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>EIR - RV 2 (Rota Teq)</v>
+        <v>EIR - Vaccination 1 date</v>
       </c>
     </row>
     <row r="95">
@@ -4915,7 +4915,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>EIR - Vials Received</v>
+        <v>EIR - Meningococcal 1</v>
       </c>
     </row>
     <row r="96">
@@ -4923,7 +4923,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
+        <v>EIR - Vaccine site</v>
       </c>
     </row>
     <row r="97">
@@ -4931,7 +4931,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>EIR - RV 1 (Rotarix)</v>
+        <v>EIR - IPV 3</v>
       </c>
     </row>
     <row r="98">
@@ -4939,7 +4939,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>EIR - Update HIV status and Anaphylaxis history</v>
+        <v>EIR - bOPV 1</v>
       </c>
     </row>
     <row r="99">
@@ -4947,7 +4947,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>EIR - Typhoid (Vi PS) 1</v>
+        <v>EIR - Typhoid TCV (Typbar) 1</v>
       </c>
     </row>
     <row r="100">
@@ -4955,7 +4955,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>EIR - OPV not given</v>
+        <v>EIR - Vaccine given at public site</v>
       </c>
     </row>
     <row r="101">
@@ -4963,7 +4963,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>EIR - Cholera 3</v>
+        <v>EIR - RV 2 (Rota Teq)</v>
       </c>
     </row>
     <row r="102">
@@ -4971,7 +4971,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>EIR - Vials on Hand</v>
+        <v>EIR - Vials Received</v>
       </c>
     </row>
     <row r="103">
@@ -4979,7 +4979,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>EIR - RV 3 (Rota Teq)</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
       </c>
     </row>
     <row r="104">
@@ -4987,7 +4987,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 1)</v>
+        <v>EIR - RV 1 (Rotarix)</v>
       </c>
     </row>
     <row r="105">
@@ -4995,7 +4995,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>EIR - PCV 1</v>
+        <v>EIR - Update HIV status and Anaphylaxis history</v>
       </c>
     </row>
     <row r="106">
@@ -5003,7 +5003,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>EIR - Vaccine 2 name</v>
+        <v>EIR - Typhoid (Vi PS) 1</v>
       </c>
     </row>
     <row r="107">
@@ -5011,7 +5011,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 3)</v>
+        <v>EIR - OPV not given</v>
       </c>
     </row>
     <row r="108">
@@ -5019,7 +5019,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>EIR - MMR2</v>
+        <v>EIR - Cholera 3</v>
       </c>
     </row>
     <row r="109">
@@ -5027,7 +5027,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>EIR - PCV not given</v>
+        <v>EIR - Vials on Hand</v>
       </c>
     </row>
     <row r="110">
@@ -5035,7 +5035,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>EIR - Cholera 1</v>
+        <v>EIR - RV 3 (Rota Teq)</v>
       </c>
     </row>
     <row r="111">
@@ -5043,7 +5043,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>EIR - MMR1</v>
+        <v>EIR - Batch/lot number (Vaccine 1)</v>
       </c>
     </row>
     <row r="112">
@@ -5051,7 +5051,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>EIR - IPV 4 (Booster dose)</v>
+        <v>EIR - PCV 1</v>
       </c>
     </row>
     <row r="113">
@@ -5059,7 +5059,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>EIR - Vaccine 3 name</v>
+        <v>EIR - Vaccine 2 name</v>
       </c>
     </row>
     <row r="114">
@@ -5067,7 +5067,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>EIR - Swelling</v>
+        <v>GEN - Attendant at birth</v>
       </c>
     </row>
     <row r="115">
@@ -5075,7 +5075,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B115" s="5" t="str">
-        <v>EIR - Vaccination 2 date</v>
+        <v>EIR - Expiry date (Vaccine 3)</v>
       </c>
     </row>
     <row r="116">
@@ -5083,7 +5083,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>EIR - bOPV 0</v>
+        <v>EIR - MMR2</v>
       </c>
     </row>
     <row r="117">
@@ -5091,7 +5091,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B117" s="5" t="str">
-        <v>EIR - Vaccine 1 name</v>
+        <v>EIR - PCV not given</v>
       </c>
     </row>
     <row r="118">
@@ -5099,7 +5099,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B118" s="4" t="str">
-        <v>EIR - Vaccination 3 date</v>
+        <v>EIR - Cholera 1</v>
       </c>
     </row>
     <row r="119">
@@ -5107,7 +5107,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B119" s="5" t="str">
-        <v>EIR - mOPV</v>
+        <v>EIR - MMR1</v>
       </c>
     </row>
     <row r="120">
@@ -5115,7 +5115,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B120" s="4" t="str">
-        <v>EIR - Vials Redistributed</v>
+        <v>EIR - IPV 4 (Booster dose)</v>
       </c>
     </row>
     <row r="121">
@@ -5123,7 +5123,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B121" s="5" t="str">
-        <v>EIR - DTap (Td containing) 1</v>
+        <v>EIR - Vaccine 3 name</v>
       </c>
     </row>
     <row r="122">
@@ -5131,7 +5131,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B122" s="4" t="str">
-        <v>EIR - Vaccination place</v>
+        <v>EIR - Swelling</v>
       </c>
     </row>
     <row r="123">
@@ -5139,7 +5139,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B123" s="5" t="str">
-        <v>EIR - MR1</v>
+        <v>EIR - Vaccination 2 date</v>
       </c>
     </row>
     <row r="124">
@@ -5147,7 +5147,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B124" s="4" t="str">
-        <v>EIR - Tick-Borne Encephalitis 3</v>
+        <v>EIR - bOPV 0</v>
       </c>
     </row>
     <row r="125">
@@ -5155,7 +5155,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B125" s="5" t="str">
-        <v>EIR - Measles not given</v>
+        <v>EIR - Vaccine 1 name</v>
       </c>
     </row>
     <row r="126">
@@ -5163,7 +5163,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B126" s="4" t="str">
-        <v>EIR - Rubella 1</v>
+        <v>EIR - Vaccination 3 date</v>
       </c>
     </row>
     <row r="127">
@@ -5171,7 +5171,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B127" s="5" t="str">
-        <v>EIR - Malaise</v>
+        <v>EIR - mOPV</v>
       </c>
     </row>
     <row r="128">
@@ -5179,7 +5179,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B128" s="4" t="str">
-        <v>EIR - Congenital anomaly</v>
+        <v>EIR - Vials Redistributed</v>
       </c>
     </row>
     <row r="129">
@@ -5187,79 +5187,79 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B129" s="5" t="str">
-        <v>EIR - Hepatitis B not given</v>
+        <v>EIR - DTap (Td containing) 1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B130" s="4" t="str">
-        <v>GEN - Gestational age</v>
+        <v>GEN - Parity</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B131" s="5" t="str">
-        <v>GEN - Attendant at birth</v>
+        <v>EIR - Vaccination place</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B132" s="4" t="str">
-        <v>GEN - Birth type</v>
+        <v>EIR - MR1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B133" s="5" t="str">
-        <v>GEN - Parity</v>
+        <v>EIR - Tick-Borne Encephalitis 3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B134" s="4" t="str">
-        <v>GEN - Birth weight (grams)</v>
+        <v>EIR - Measles not given</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B135" s="5" t="str">
-        <v>GEN - Place of birth</v>
+        <v>EIR - Rubella 1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B136" s="4" t="str">
-        <v>GEN - Facility of birth</v>
+        <v>EIR - Malaise</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B137" s="5" t="str">
-        <v>GEN - Mode of delivery</v>
+        <v>EIR - Congenital anomaly</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="str">
-        <v>Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B138" s="4" t="str">
-        <v>GEN - Village of birth</v>
+        <v>EIR - Hepatitis B not given</v>
       </c>
     </row>
   </sheetData>
@@ -7312,7 +7312,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Immunization (Tracker)</v>
+        <v>EIR</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
@@ -7343,7 +7343,7 @@
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
   </sheetData>
@@ -7430,7 +7430,7 @@
         <v/>
       </c>
       <c r="J2" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="3">
@@ -7462,7 +7462,7 @@
         <v/>
       </c>
       <c r="J3" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="4">
@@ -7494,7 +7494,7 @@
         <v/>
       </c>
       <c r="J4" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="5">
@@ -7526,7 +7526,7 @@
         <v/>
       </c>
       <c r="J5" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="6">
@@ -7558,7 +7558,7 @@
         <v/>
       </c>
       <c r="J6" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="7">
@@ -7590,7 +7590,7 @@
         <v/>
       </c>
       <c r="J7" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7622,7 @@
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="9">
@@ -7654,7 +7654,7 @@
         <v/>
       </c>
       <c r="J9" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="10">
@@ -7686,7 +7686,7 @@
         <v/>
       </c>
       <c r="J10" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="11">
@@ -7718,7 +7718,7 @@
         <v/>
       </c>
       <c r="J11" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="12">
@@ -7750,7 +7750,7 @@
         <v/>
       </c>
       <c r="J12" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="13">
@@ -7782,7 +7782,7 @@
         <v/>
       </c>
       <c r="J13" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="14">
@@ -7814,7 +7814,7 @@
         <v/>
       </c>
       <c r="J14" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="15">
@@ -7846,7 +7846,7 @@
         <v/>
       </c>
       <c r="J15" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="16">
@@ -7878,7 +7878,7 @@
         <v/>
       </c>
       <c r="J16" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="17">
@@ -7910,7 +7910,7 @@
         <v/>
       </c>
       <c r="J17" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="18">
@@ -7942,7 +7942,7 @@
         <v/>
       </c>
       <c r="J18" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="19">
@@ -7974,7 +7974,7 @@
         <v/>
       </c>
       <c r="J19" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="20">
@@ -8006,7 +8006,7 @@
         <v/>
       </c>
       <c r="J20" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="21">
@@ -8038,7 +8038,7 @@
         <v/>
       </c>
       <c r="J21" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="22">
@@ -8070,7 +8070,7 @@
         <v/>
       </c>
       <c r="J22" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="23">
@@ -8102,7 +8102,7 @@
         <v/>
       </c>
       <c r="J23" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="24">
@@ -8134,7 +8134,7 @@
         <v/>
       </c>
       <c r="J24" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="25">
@@ -8166,7 +8166,7 @@
         <v/>
       </c>
       <c r="J25" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="26">
@@ -8198,7 +8198,7 @@
         <v/>
       </c>
       <c r="J26" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="27">
@@ -8230,7 +8230,7 @@
         <v/>
       </c>
       <c r="J27" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="28">
@@ -8262,7 +8262,7 @@
         <v/>
       </c>
       <c r="J28" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="29">
@@ -8294,7 +8294,7 @@
         <v/>
       </c>
       <c r="J29" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="30">
@@ -8326,7 +8326,7 @@
         <v/>
       </c>
       <c r="J30" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="31">
@@ -8358,7 +8358,7 @@
         <v/>
       </c>
       <c r="J31" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="32">
@@ -8390,7 +8390,7 @@
         <v/>
       </c>
       <c r="J32" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="33">
@@ -8422,7 +8422,7 @@
         <v/>
       </c>
       <c r="J33" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="34">
@@ -8454,7 +8454,7 @@
         <v/>
       </c>
       <c r="J34" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
   </sheetData>
@@ -11018,7 +11018,7 @@
         <v>JfUFrG8f5y3</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>LINE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C82" s="4" t="str">
         <v>EIR - Average Age in Months at Visit</v>
@@ -11038,7 +11038,7 @@
         <v>UqRvy4NmzNp</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>PIE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C83" s="5" t="str">
         <v>EIR - Age at Enrollment in Weeks</v>
@@ -11078,7 +11078,7 @@
         <v>kVCOyNHLaUt</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>PIE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C85" s="5" t="str">
         <v>EIR - Age at Visit in Weeks</v>
@@ -11198,7 +11198,7 @@
         <v>WQrf6A8mmWw</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>LINE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C91" s="5" t="str">
         <v>EIR - Average Age in Months at Enrollment</v>
@@ -11318,7 +11318,7 @@
         <v>TMlhIhRKfYP</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C97" s="5" t="str">
         <v>EIR - RV Doses given last 12 months</v>
@@ -11338,7 +11338,7 @@
         <v>UbxJVBGU7i4</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C98" s="4" t="str">
         <v>EIR - Penta Doses given last 12 months</v>
@@ -11378,7 +11378,7 @@
         <v>xcXSylUsMgi</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C100" s="4" t="str">
         <v>EIR - PCV Doses given last 12 months</v>
@@ -11418,7 +11418,7 @@
         <v>kWbzSfOYYm8</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C102" s="4" t="str">
         <v>EIR - OPV and IPV Doses given last 12 months</v>
@@ -13182,7 +13182,7 @@
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>IWp9dQGM0bS</v>
+        <v>LPrZIVYQGUv</v>
       </c>
     </row>
   </sheetData>
@@ -18410,14 +18410,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
-    <col min="3" max="3" width="170.7109375" customWidth="1"/>
+    <col min="3" max="3" width="168.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -18447,7 +18447,7 @@
         <v>Allergic reaction for Measles (mcv)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">If the child has previously allergic reaction, but is HIV negative or on ART </v>
+        <v>If the child has previously allergic reaction, but is HIV negative or on ART</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
@@ -18855,7 +18855,7 @@
         <v>Hide DPT1</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Hide DPT1 if ever given, or age is less than 6 weeks - Hide DPT1. (#{dpt1prev}=='1' || #{dpt1prev}==true || #{dpt1prev}==1  ||  #{ageWeeks} &lt; 6) &amp;&amp; !#{ShowAll_Unlocked}</v>
+        <v>Hide DPT1 if ever given, or age is less than 6 weeks - Hide DPT1. (#{dpt1prev}=='1' || #{dpt1prev}==true || #{dpt1prev}==1 || #{ageWeeks} &lt; 6) &amp;&amp; !#{ShowAll_Unlocked}</v>
       </c>
       <c r="D26" s="4" t="str">
         <v/>
@@ -19376,10 +19376,10 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>Zy3o9HFAtXB</v>
+        <v>er5TDehZZHf</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Hide vaccine site when given at public</v>
+        <v>Hide village of birth unless birth was at home</v>
       </c>
       <c r="C57" s="5" t="str">
         <v/>
@@ -19393,13 +19393,13 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>er5TDehZZHf</v>
+        <v>o1C8UWTLWAY</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Hide village of birth unless birth was at home</v>
+        <v>High Risk: Top Bar String</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v/>
+        <v>Allergic reactions or HIV+, show on top bar</v>
       </c>
       <c r="D58" s="4" t="str">
         <v/>
@@ -19410,13 +19410,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>o1C8UWTLWAY</v>
+        <v>sFGeNJX7IB4</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>High Risk: Top Bar String</v>
+        <v>HIV Positive and not on ART and allergic reaction for Measles (mcv)</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Allergic reactions or HIV+, show on top bar</v>
+        <v>If the child is HIV positive and not on ART and also has previously allergic reaction</v>
       </c>
       <c r="D59" s="5" t="str">
         <v/>
@@ -19427,13 +19427,13 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>sFGeNJX7IB4</v>
+        <v>WFqWHVExD34</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>HIV Positive and not on ART and allergic reaction for Measles (mcv)</v>
+        <v>HIV Positive and not on ART for Measles (mcv) 2 dose</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>If the child is HIV positive and not on ART and also has previously allergic reaction</v>
+        <v>If the child is HIV positive and not on ART</v>
       </c>
       <c r="D60" s="4" t="str">
         <v/>
@@ -19444,10 +19444,10 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>WFqWHVExD34</v>
+        <v>c0Kh3E7yrCF</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>HIV Positive and not on ART for Measles (mcv) 2 dose</v>
+        <v>HIV Positive and not on ART for Pentavalent 3</v>
       </c>
       <c r="C61" s="5" t="str">
         <v>If the child is HIV positive and not on ART</v>
@@ -19461,10 +19461,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>c0Kh3E7yrCF</v>
+        <v>jgrz4ixypZd</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>HIV Positive and not on ART for Pentavalent 3</v>
+        <v>HIV Positive for PCV 3</v>
       </c>
       <c r="C62" s="4" t="str">
         <v>If the child is HIV positive and not on ART</v>
@@ -19478,13 +19478,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>jgrz4ixypZd</v>
+        <v>pknU7h6lkxm</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>HIV Positive for PCV 3</v>
+        <v>HIV Positive not on ART, or prior severe reaction, for Rotarix (RV)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>If the child is HIV positive and not on ART</v>
+        <v>RV If the child is HIV positive and not on ART. Or, if there is a severe reaction to the first vaccine.</v>
       </c>
       <c r="D63" s="5" t="str">
         <v/>
@@ -19495,13 +19495,13 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>pknU7h6lkxm</v>
+        <v>mdSthJ4r9x0</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>HIV Positive not on ART, or prior severe reaction, for Rotarix (RV)</v>
+        <v>Measles0 warning</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>RV If the child is HIV positive and not on ART. Or, if there is a severe reaction to the first vaccine.</v>
+        <v/>
       </c>
       <c r="D64" s="4" t="str">
         <v/>
@@ -19512,10 +19512,10 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>mdSthJ4r9x0</v>
+        <v>bvKyAHQU2gT</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>Measles0 warning</v>
+        <v>Name : Top Bar String</v>
       </c>
       <c r="C65" s="5" t="str">
         <v/>
@@ -19529,10 +19529,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>bvKyAHQU2gT</v>
+        <v>wJxjnrj1cb2</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>Name : Top Bar String</v>
+        <v>Non Routine Immunization section unlocked - Record earlier date</v>
       </c>
       <c r="C66" s="4" t="str">
         <v/>
@@ -19546,10 +19546,10 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>wJxjnrj1cb2</v>
+        <v>Gpdjp8QrPYK</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>Non Routine Immunization section unlocked - Record earlier date</v>
+        <v>Non Routine Immunization section unlocked - Record event date</v>
       </c>
       <c r="C67" s="5" t="str">
         <v/>
@@ -19563,10 +19563,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>Gpdjp8QrPYK</v>
+        <v>cqNYxX1JT2n</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>Non Routine Immunization section unlocked - Record event date</v>
+        <v>Non Routine Immunization section unlocked - Show earlier date</v>
       </c>
       <c r="C68" s="4" t="str">
         <v/>
@@ -19580,10 +19580,10 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>cqNYxX1JT2n</v>
+        <v>fjGaQUAWMoO</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>Non Routine Immunization section unlocked - Show earlier date</v>
+        <v>Non Routine Immunization section unlocked - Show event date</v>
       </c>
       <c r="C69" s="5" t="str">
         <v/>
@@ -19597,13 +19597,13 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>fjGaQUAWMoO</v>
+        <v>rhispzm1006</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>Non Routine Immunization section unlocked - Show event date</v>
+        <v>Populate age at visit</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v/>
+        <v>Populate ages - Populate ages</v>
       </c>
       <c r="D70" s="4" t="str">
         <v/>
@@ -19614,13 +19614,13 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>rhispzm1006</v>
+        <v>rhispzm1088</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>Populate age at visit</v>
+        <v>Populate current age</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Populate ages - Populate ages</v>
+        <v>Populate current age - Populate current age</v>
       </c>
       <c r="D71" s="5" t="str">
         <v/>
@@ -19631,13 +19631,13 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>rhispzm1088</v>
+        <v>vFVrJnEvnt1</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>Populate current age</v>
+        <v>Risk: Multiple detected</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Populate current age - Populate current age</v>
+        <v/>
       </c>
       <c r="D72" s="4" t="str">
         <v/>
@@ -19648,13 +19648,13 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>vFVrJnEvnt1</v>
+        <v>Mxx1YuuJ0Bw</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>Risk: Multiple detected</v>
+        <v>Show age at visit String</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v/>
+        <v>Show formatted age String as key-value-pair - Show age at visit String</v>
       </c>
       <c r="D73" s="5" t="str">
         <v/>
@@ -19665,13 +19665,13 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>Mxx1YuuJ0Bw</v>
+        <v>rhispzm1094</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>Show age at visit String</v>
+        <v>Show age String</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Show formatted age String as key-value-pair - Show age at visit String</v>
+        <v>Show formatted age String as key-value-pair - Show age String</v>
       </c>
       <c r="D74" s="4" t="str">
         <v/>
@@ -19682,13 +19682,13 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>rhispzm1094</v>
+        <v>afNhHC1QaMX</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>Show age String</v>
+        <v>Show all immunization questions if explanation longer than 5 characters</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Show formatted age String as key-value-pair - Show age String</v>
+        <v>d2:length(#{ShowAll_Explain})&gt;4</v>
       </c>
       <c r="D75" s="5" t="str">
         <v/>
@@ -19699,13 +19699,13 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>afNhHC1QaMX</v>
+        <v>lqwnzer7lIc</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>Show all immunization questions if explanation longer than 5 characters</v>
+        <v>Show warning for rubella regarding blood transfusion</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>d2:length(#{ShowAll_Explain})&gt;4</v>
+        <v/>
       </c>
       <c r="D76" s="4" t="str">
         <v/>
@@ -19716,10 +19716,10 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>lqwnzer7lIc</v>
+        <v>cfUaApwYRNO</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>Show warning for rubella regarding blood transfusion</v>
+        <v>SMS: Send notification when birth notified to CRVS</v>
       </c>
       <c r="C77" s="5" t="str">
         <v/>
@@ -19733,10 +19733,10 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>cfUaApwYRNO</v>
+        <v>rhtX1D73UON</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>SMS: Send notification when birth notified to CRVS</v>
+        <v>SMS: Send notification when certificate not delivered</v>
       </c>
       <c r="C78" s="4" t="str">
         <v/>
@@ -19750,10 +19750,10 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>rhtX1D73UON</v>
+        <v>uuJGP7gTjaV</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>SMS: Send notification when certificate not delivered</v>
+        <v>System: Send notification when birth notified to CRVS</v>
       </c>
       <c r="C79" s="5" t="str">
         <v/>
@@ -19767,10 +19767,10 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>uuJGP7gTjaV</v>
+        <v>zvdRyUltPDG</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>System: Send notification when birth notified to CRVS</v>
+        <v>System: Send notification when certificate not delivered</v>
       </c>
       <c r="C80" s="4" t="str">
         <v/>
@@ -19784,10 +19784,10 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>zvdRyUltPDG</v>
+        <v>kAyfuoOhAmq</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>System: Send notification when certificate not delivered</v>
+        <v>System: Send notification when certificate received</v>
       </c>
       <c r="C81" s="5" t="str">
         <v/>
@@ -19801,13 +19801,13 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>kAyfuoOhAmq</v>
+        <v>sC04uK24k6u</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>System: Send notification when certificate received</v>
+        <v>Use show/hides for immunizations if explanation less than 5 characters</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v/>
+        <v>d2:length(#{ShowAll_Explain})&lt;4 || !d2:hasValue('ShowAll_Yes')</v>
       </c>
       <c r="D82" s="4" t="str">
         <v/>
@@ -19818,13 +19818,13 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>sC04uK24k6u</v>
+        <v>CVo1uhAyGLU</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>Use show/hides for immunizations if explanation less than 5 characters</v>
+        <v>Val: Gestational Age at birth 0-28 weeks or 42-49 weeks (soft)</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>d2:length(#{ShowAll_Explain})&lt;4  || !d2:hasValue('ShowAll_Yes')</v>
+        <v/>
       </c>
       <c r="D83" s="5" t="str">
         <v/>
@@ -19835,10 +19835,10 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>CVo1uhAyGLU</v>
+        <v>HIcTQC9O2lE</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>Val: Gestational Age at birth 0-28 weeks or 42-49 weeks (soft)</v>
+        <v>Val: Gestational Age at birth &gt;= 50 w (hard)</v>
       </c>
       <c r="C84" s="4" t="str">
         <v/>
@@ -19852,10 +19852,10 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>HIcTQC9O2lE</v>
+        <v>U3FeVKEw1Sr</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>Val: Gestational Age at birth &gt;= 50 w (hard)</v>
+        <v>Val: High birth weight &gt; 10000g</v>
       </c>
       <c r="C85" s="5" t="str">
         <v/>
@@ -19869,10 +19869,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>U3FeVKEw1Sr</v>
+        <v>MRn6asFPQlJ</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>Val: High birth weight &gt; 10000g</v>
+        <v>Val: Low birth weight &lt; 2500g</v>
       </c>
       <c r="C86" s="4" t="str">
         <v/>
@@ -19886,10 +19886,10 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>MRn6asFPQlJ</v>
+        <v>Zo0j0SwKFd1</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>Val: Low birth weight &lt; 2500g</v>
+        <v>Warning for High temperature_PCV</v>
       </c>
       <c r="C87" s="5" t="str">
         <v/>
@@ -19903,13 +19903,13 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>Zo0j0SwKFd1</v>
+        <v>Fvum9bZNqjD</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>Warning for High temperature_PCV</v>
+        <v>Warning for Rotarix (RV) Vaccine if the temperature is high</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v/>
+        <v>If high temp. Superceded by warnings if there is HIV+ and not on ART, or if previous reaction</v>
       </c>
       <c r="D88" s="4" t="str">
         <v/>
@@ -19920,13 +19920,13 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>Fvum9bZNqjD</v>
+        <v>VkQRPxH8fzg</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>Warning for Rotarix (RV) Vaccine if the temperature is high</v>
+        <v>Warning: HIV Positive and not on ART for BCG 0.05ml vaccine</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>If high temp. Superceded by warnings if there is HIV+ and not on ART, or if previous reaction</v>
+        <v>If the child is HIV positive and not on ART</v>
       </c>
       <c r="D89" s="5" t="str">
         <v/>
@@ -19937,10 +19937,10 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>VkQRPxH8fzg</v>
+        <v>cafTxp9WWUZ</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>Warning: HIV Positive and not on ART for BCG 0.05ml vaccine</v>
+        <v>Warning: HIV Positive and not on ART for BCG 0.1ml vaccine</v>
       </c>
       <c r="C90" s="4" t="str">
         <v>If the child is HIV positive and not on ART</v>
@@ -19949,23 +19949,6 @@
         <v/>
       </c>
       <c r="E90" s="4" t="str">
-        <v>SSLpOM0r1U7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="str">
-        <v>cafTxp9WWUZ</v>
-      </c>
-      <c r="B91" s="5" t="str">
-        <v>Warning: HIV Positive and not on ART for BCG 0.1ml vaccine</v>
-      </c>
-      <c r="C91" s="5" t="str">
-        <v>If the child is HIV positive and not on ART</v>
-      </c>
-      <c r="D91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E91" s="5" t="str">
         <v>SSLpOM0r1U7</v>
       </c>
     </row>
